--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A482F29-14CC-48B6-A39D-28487EE0B4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD09188-7829-409C-9B2D-9759F62199C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>OrderId</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Extended Warranty Platinum</t>
+  </si>
+  <si>
+    <t>Bill GSTN</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -499,12 +505,15 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
+      </c>
+      <c r="B2">
+        <v>9880202001</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehalmalde\Downloads\DMS_Migration 2\DMS_Migration\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD09188-7829-409C-9B2D-9759F62199C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130588EA-30D5-4F18-80C4-C03EA38A928E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
   <sheets>
-    <sheet name="InvoiceDetails" sheetId="1" r:id="rId1"/>
-    <sheet name="VehicleDetails" sheetId="2" r:id="rId2"/>
+    <sheet name="InvoiceData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,23 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>OrderId</t>
   </si>
   <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
     <t>Workspace</t>
   </si>
   <si>
     <t>Aadhar Num</t>
   </si>
   <si>
-    <t>Bill GSN</t>
-  </si>
-  <si>
     <t>SOB23000623</t>
   </si>
   <si>
@@ -124,6 +117,36 @@
   </si>
   <si>
     <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>FastTagID</t>
+  </si>
+  <si>
+    <t>FastTagBank</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>PaymentType</t>
+  </si>
+  <si>
+    <t>TaxRate</t>
+  </si>
+  <si>
+    <t>TDSAmount</t>
+  </si>
+  <si>
+    <t>MSGAFinancierName</t>
+  </si>
+  <si>
+    <t>LoanType</t>
+  </si>
+  <si>
+    <t>LoanStatus</t>
   </si>
 </sst>
 </file>
@@ -476,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,174 +514,154 @@
     <col min="5" max="5" width="25.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>9880202001</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>123234567894</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E733761F-1021-4977-9029-192AF8DF5C9F}">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>123234567894</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
+      <c r="N2">
+        <v>123</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>123234567894</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
       <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
+      <c r="N3">
+        <v>234</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehalmalde\Downloads\DMS_Migration 2\DMS_Migration\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehalmalde\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130588EA-30D5-4F18-80C4-C03EA38A928E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6684120-5E21-4EE7-BC54-E4384A4F4F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>OrderId</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Aadhar Num</t>
   </si>
   <si>
-    <t>SOB23000623</t>
-  </si>
-  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -147,6 +144,54 @@
   </si>
   <si>
     <t>LoanStatus</t>
+  </si>
+  <si>
+    <t>LoanApplicationDate</t>
+  </si>
+  <si>
+    <t>LoanStage</t>
+  </si>
+  <si>
+    <t>LoanApprovalDate</t>
+  </si>
+  <si>
+    <t>LoanClosingDate</t>
+  </si>
+  <si>
+    <t>LoanRejectionDate</t>
+  </si>
+  <si>
+    <t>LoanRejectionReason</t>
+  </si>
+  <si>
+    <t>LoanDirsbursalDate</t>
+  </si>
+  <si>
+    <t>DownPaymentMode</t>
+  </si>
+  <si>
+    <t>ReasonForCash</t>
+  </si>
+  <si>
+    <t>DownPaymentAdjustedOrNot</t>
+  </si>
+  <si>
+    <t>Normal Rate</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>SOB15000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	CANARA BANK</t>
   </si>
 </sst>
 </file>
@@ -182,9 +227,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,27 +545,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
-    <col min="5" max="5" width="25.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -528,140 +599,197 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
       <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
       <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>36</v>
       </c>
+      <c r="W1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>9643785691</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>9880202001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="1">
         <v>123234567894</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
       </c>
       <c r="N2">
         <v>123</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="2">
+        <v>45227</v>
+      </c>
+      <c r="X2" s="2">
+        <v>45227</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>45246</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>45231</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>123234567894</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
       </c>
       <c r="N3">
         <v>234</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehalmalde\Downloads\DMS_Migration 2\DMS_Migration\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130588EA-30D5-4F18-80C4-C03EA38A928E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8206C285-5C3B-4442-AAD3-60F971C41E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>OrderId</t>
   </si>
@@ -147,6 +147,66 @@
   </si>
   <si>
     <t>LoanStatus</t>
+  </si>
+  <si>
+    <t>Normal Rate</t>
+  </si>
+  <si>
+    <t>CANARA BANK</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Financier</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>FinancierAmt</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>LoanApplicationDate</t>
+  </si>
+  <si>
+    <t>LoanStage</t>
+  </si>
+  <si>
+    <t>LoanApprovalDate</t>
+  </si>
+  <si>
+    <t>LoanClosingDate</t>
+  </si>
+  <si>
+    <t>LoanRejectionDate</t>
+  </si>
+  <si>
+    <t>LoanRejectionReason</t>
+  </si>
+  <si>
+    <t>LoanDirsbursalDate</t>
+  </si>
+  <si>
+    <t>DownPaymentMode</t>
+  </si>
+  <si>
+    <t>ReasonForCash</t>
+  </si>
+  <si>
+    <t>DownPaymentAdjustedOrNot</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -182,9 +242,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,22 +568,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
-    <col min="5" max="5" width="25.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -578,8 +674,44 @@
       <c r="U1" t="s">
         <v>36</v>
       </c>
+      <c r="V1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -622,8 +754,32 @@
       <c r="O2" t="s">
         <v>29</v>
       </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2">
+        <v>121111</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -642,6 +798,9 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
@@ -663,8 +822,119 @@
       <c r="O3" t="s">
         <v>30</v>
       </c>
+      <c r="P3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="3">
+        <v>45227</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="3">
+        <v>45227</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>45246</v>
+      </c>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="3">
+        <v>45231</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>123234567894</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>234</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="3">
+        <v>45227</v>
+      </c>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="3">
+        <v>45246</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehalmalde\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6684120-5E21-4EE7-BC54-E4384A4F4F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8206C285-5C3B-4442-AAD3-60F971C41E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>OrderId</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Aadhar Num</t>
   </si>
   <si>
+    <t>SOB23000623</t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -146,6 +149,30 @@
     <t>LoanStatus</t>
   </si>
   <si>
+    <t>Normal Rate</t>
+  </si>
+  <si>
+    <t>CANARA BANK</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Financier</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>FinancierAmt</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
     <t>LoanApplicationDate</t>
   </si>
   <si>
@@ -176,22 +203,10 @@
     <t>DownPaymentAdjustedOrNot</t>
   </si>
   <si>
-    <t>Normal Rate</t>
-  </si>
-  <si>
-    <t>Advance</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>SOB15000006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	CANARA BANK</t>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -227,10 +242,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,7 +591,7 @@
     <col min="14" max="14" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.81640625" bestFit="1" customWidth="1"/>
@@ -580,17 +603,19 @@
     <col min="26" max="26" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -599,200 +624,317 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="W1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="X1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Z1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AG1" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>9643785691</v>
+        <v>9880202001</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1">
         <v>123234567894</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
       <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2">
         <v>123</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="R2">
+        <v>121111</v>
       </c>
       <c r="S2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="2">
-        <v>45227</v>
-      </c>
-      <c r="X2" s="2">
-        <v>45227</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>45246</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>45231</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2">
+        <v>5000</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>123234567894</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
       <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>234</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="3">
+        <v>45227</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="3">
+        <v>45227</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>45246</v>
+      </c>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="3">
+        <v>45231</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>123234567894</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>234</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="3">
+        <v>45227</v>
+      </c>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="3">
+        <v>45246</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sprakash01\ProjectFiles\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8206C285-5C3B-4442-AAD3-60F971C41E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33870AF7-FB24-45BD-8C86-BD54D574D51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
   <sheets>
     <sheet name="InvoiceData" sheetId="1" r:id="rId1"/>
+    <sheet name="Billing Address" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
   <si>
     <t>OrderId</t>
   </si>
@@ -47,9 +48,6 @@
     <t>Aadhar Num</t>
   </si>
   <si>
-    <t>SOB23000623</t>
-  </si>
-  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -71,12 +69,6 @@
     <t>State</t>
   </si>
   <si>
-    <t xml:space="preserve">City </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dealer </t>
-  </si>
-  <si>
     <t>ExtendedWarranty</t>
   </si>
   <si>
@@ -161,9 +153,6 @@
     <t>Financier</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
     <t>FinancierAmt</t>
   </si>
   <si>
@@ -207,16 +196,57 @@
   </si>
   <si>
     <t>Rejected</t>
+  </si>
+  <si>
+    <t>BillAddress_1</t>
+  </si>
+  <si>
+    <t>BillAddress_2</t>
+  </si>
+  <si>
+    <t>BillAddress_3</t>
+  </si>
+  <si>
+    <t>H.No 12</t>
+  </si>
+  <si>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>SOB15000006</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Dealer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VCV1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444444"/>
+      <name val="Roboto_regular"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -251,9 +281,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
@@ -610,12 +638,12 @@
     <col min="33" max="33" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="58">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -624,217 +652,239 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
       <c r="V1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" t="s">
         <v>53</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AI1" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>42</v>
+      <c r="AJ1" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4">
+        <v>9643785691</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>9880202001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="1">
         <v>123234567894</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
       </c>
       <c r="N2">
         <v>123</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R2">
         <v>121111</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG2">
         <v>5000</v>
       </c>
+      <c r="AH2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4">
+        <v>9643785691</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>123234567894</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
       </c>
       <c r="N3">
         <v>234</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3">
+        <v>121111</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
       <c r="T3" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="V3" s="3">
         <v>45227</v>
@@ -852,67 +902,89 @@
         <v>45231</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
+      <c r="AF3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG3">
+        <v>5000</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="4">
+        <v>9643785691</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>123234567894</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
       </c>
       <c r="N4">
         <v>234</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4">
+        <v>121111</v>
+      </c>
+      <c r="S4" t="s">
+        <v>35</v>
+      </c>
       <c r="T4" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="V4" s="3">
         <v>45227</v>
@@ -928,13 +1000,51 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
+      <c r="AF4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG4">
+        <v>5000</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0D3F18-E8A2-4ACA-9931-553039ECECE0}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sprakash01\ProjectFiles\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33870AF7-FB24-45BD-8C86-BD54D574D51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9045B90E-9D65-4ED2-9136-E807A034F93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>OrderId</t>
   </si>
@@ -144,88 +144,100 @@
     <t>Normal Rate</t>
   </si>
   <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Financier</t>
+  </si>
+  <si>
+    <t>FinancierAmt</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>LoanApplicationDate</t>
+  </si>
+  <si>
+    <t>LoanStage</t>
+  </si>
+  <si>
+    <t>LoanApprovalDate</t>
+  </si>
+  <si>
+    <t>LoanClosingDate</t>
+  </si>
+  <si>
+    <t>LoanRejectionDate</t>
+  </si>
+  <si>
+    <t>LoanRejectionReason</t>
+  </si>
+  <si>
+    <t>DownPaymentMode</t>
+  </si>
+  <si>
+    <t>ReasonForCash</t>
+  </si>
+  <si>
+    <t>DownPaymentAdjustedOrNot</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>BillAddress_1</t>
+  </si>
+  <si>
+    <t>BillAddress_2</t>
+  </si>
+  <si>
+    <t>BillAddress_3</t>
+  </si>
+  <si>
+    <t>H.No 12</t>
+  </si>
+  <si>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>SOB15000006</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Dealer</t>
+  </si>
+  <si>
+    <t>ICICI BANK LTD</t>
+  </si>
+  <si>
     <t>CANARA BANK</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Financier</t>
-  </si>
-  <si>
-    <t>FinancierAmt</t>
-  </si>
-  <si>
-    <t>Advance</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>LoanApplicationDate</t>
-  </si>
-  <si>
-    <t>LoanStage</t>
-  </si>
-  <si>
-    <t>LoanApprovalDate</t>
-  </si>
-  <si>
-    <t>LoanClosingDate</t>
-  </si>
-  <si>
-    <t>LoanRejectionDate</t>
-  </si>
-  <si>
-    <t>LoanRejectionReason</t>
-  </si>
-  <si>
-    <t>LoanDirsbursalDate</t>
-  </si>
-  <si>
-    <t>DownPaymentMode</t>
-  </si>
-  <si>
-    <t>ReasonForCash</t>
-  </si>
-  <si>
-    <t>DownPaymentAdjustedOrNot</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>BillAddress_1</t>
-  </si>
-  <si>
-    <t>BillAddress_2</t>
-  </si>
-  <si>
-    <t>BillAddress_3</t>
-  </si>
-  <si>
-    <t>H.No 12</t>
-  </si>
-  <si>
-    <t>Agra</t>
-  </si>
-  <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>SOB15000006</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Dealer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VCV1</t>
+    <t>TCSFlag</t>
+  </si>
+  <si>
+    <t>28-10-2023</t>
+  </si>
+  <si>
+    <t>01-11-2023</t>
+  </si>
+  <si>
+    <t>25-11-2023</t>
+  </si>
+  <si>
+    <t>LoanDisbursalDate</t>
   </si>
 </sst>
 </file>
@@ -278,10 +290,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -621,24 +633,25 @@
     <col min="16" max="16" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7265625" customWidth="1"/>
+    <col min="20" max="20" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="58">
+    <row r="1" spans="1:37" ht="58">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,10 +683,10 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
@@ -694,65 +707,68 @@
         <v>30</v>
       </c>
       <c r="S1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" t="s">
         <v>31</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>32</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>33</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
         <v>41</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>42</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK1" t="s">
         <v>53</v>
       </c>
-      <c r="AI1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="4">
+        <v>57</v>
+      </c>
+      <c r="B2" s="3">
         <v>9643785691</v>
       </c>
       <c r="C2" t="s">
@@ -792,7 +808,7 @@
         <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
         <v>34</v>
@@ -801,32 +817,38 @@
         <v>121111</v>
       </c>
       <c r="S2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="T2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
         <v>39</v>
       </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2">
+      <c r="AG2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH2">
         <v>5000</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" t="s">
         <v>56</v>
       </c>
-      <c r="AI2" t="s">
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>9643785691</v>
       </c>
       <c r="C3" t="s">
@@ -869,7 +891,7 @@
         <v>27</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>34</v>
@@ -878,55 +900,58 @@
         <v>121111</v>
       </c>
       <c r="S3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="3">
-        <v>45227</v>
-      </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="3">
-        <v>45227</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>45246</v>
-      </c>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="3">
-        <v>45231</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
-      <c r="AF3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG3">
+      <c r="AF3" s="2"/>
+      <c r="AG3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH3">
         <v>5000</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" t="s">
         <v>56</v>
       </c>
-      <c r="AI3" t="s">
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>9643785691</v>
       </c>
       <c r="C4" t="s">
@@ -969,7 +994,7 @@
         <v>27</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>34</v>
@@ -978,42 +1003,45 @@
         <v>121111</v>
       </c>
       <c r="S4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="T4" t="s">
+        <v>61</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V4" s="3">
-        <v>45227</v>
-      </c>
-      <c r="W4" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="3">
-        <v>45246</v>
-      </c>
-      <c r="AA4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG4">
+      <c r="AF4" s="2"/>
+      <c r="AG4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH4">
         <v>5000</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK4" t="s">
         <v>56</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1035,13 +1063,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sprakash01\ProjectFiles\dms_Invoice_UIAutomation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9045B90E-9D65-4ED2-9136-E807A034F93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B7B2FA-6751-45A7-9F15-D4B0A12C4231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
   <sheets>
     <sheet name="InvoiceData" sheetId="1" r:id="rId1"/>
-    <sheet name="Billing Address" sheetId="2" r:id="rId2"/>
+    <sheet name="Loyalty Ac" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="78">
   <si>
     <t>OrderId</t>
   </si>
@@ -238,6 +238,39 @@
   </si>
   <si>
     <t>LoanDisbursalDate</t>
+  </si>
+  <si>
+    <t>SOB15000272</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Maruti</t>
+  </si>
+  <si>
+    <t>MA3SFM61SPE181296</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>PolicyType</t>
+  </si>
+  <si>
+    <t>PolicyNo</t>
+  </si>
+  <si>
+    <t>OldCarCustomerName</t>
+  </si>
+  <si>
+    <t>Tani</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>Self</t>
   </si>
 </sst>
 </file>
@@ -610,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
   <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1053,23 +1086,277 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0D3F18-E8A2-4ACA-9931-553039ECECE0}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:43" ht="58">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9643785691</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>123234567894</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2">
+        <v>123</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2">
+        <v>121111</v>
+      </c>
+      <c r="V2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK2">
+        <v>5000</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO2">
+        <v>12105096</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B7B2FA-6751-45A7-9F15-D4B0A12C4231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF1E176-8C83-41A8-9D1E-16D5025C08FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
   <sheets>
     <sheet name="InvoiceData" sheetId="1" r:id="rId1"/>
-    <sheet name="Loyalty Ac" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
   <si>
     <t>OrderId</t>
   </si>
@@ -243,34 +242,28 @@
     <t>SOB15000272</t>
   </si>
   <si>
-    <t>Make</t>
-  </si>
-  <si>
     <t>Maruti</t>
   </si>
   <si>
     <t>MA3SFM61SPE181296</t>
   </si>
   <si>
-    <t>Vin</t>
-  </si>
-  <si>
-    <t>PolicyType</t>
-  </si>
-  <si>
-    <t>PolicyNo</t>
-  </si>
-  <si>
-    <t>OldCarCustomerName</t>
-  </si>
-  <si>
     <t>Tani</t>
   </si>
   <si>
-    <t>Relation</t>
-  </si>
-  <si>
     <t>Self</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Loyalty Acq Bonus</t>
+  </si>
+  <si>
+    <t>Loan Approval</t>
+  </si>
+  <si>
+    <t>Loan Rejected</t>
   </si>
 </sst>
 </file>
@@ -641,440 +634,551 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:AH2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7265625" customWidth="1"/>
-    <col min="20" max="20" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7265625" customWidth="1"/>
+    <col min="21" max="21" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="58">
+    <row r="1" spans="1:44" ht="58">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>58</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>59</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>62</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>40</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
-      <c r="A2" t="s">
+    <row r="2" spans="1:44">
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>9643785691</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>123234567894</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>123</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>34</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>121111</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>13</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>61</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>38</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>39</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>60</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>5000</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>55</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:44">
       <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>9643785691</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>123234567894</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>21</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>234</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>121111</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>13</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
-      <c r="AG3" t="s">
+      <c r="AG3" s="2"/>
+      <c r="AH3" t="s">
         <v>60</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>5000</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>54</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>55</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:44">
       <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>9643785691</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>123234567894</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>16</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>21</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>234</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>121111</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>13</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
-      <c r="AG4" t="s">
+      <c r="AG4" s="2"/>
+      <c r="AH4" t="s">
         <v>60</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>5000</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>54</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>55</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9643785691</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>123234567894</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5">
+        <v>123</v>
+      </c>
+      <c r="S5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5">
+        <v>121111</v>
+      </c>
+      <c r="W5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL5">
+        <v>5000</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP5">
+        <v>12105096</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1082,284 +1186,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0D3F18-E8A2-4ACA-9931-553039ECECE0}">
-  <dimension ref="A1:AQ2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AK6" sqref="AK6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:43" ht="58">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="3">
-        <v>9643785691</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>123234567894</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2">
-        <v>123</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2">
-        <v>121111</v>
-      </c>
-      <c r="V2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK2">
-        <v>5000</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO2">
-        <v>12105096</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF1E176-8C83-41A8-9D1E-16D5025C08FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94077A76-B41C-416A-9139-03814ED61CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="87">
   <si>
     <t>OrderId</t>
   </si>
@@ -264,13 +264,46 @@
   </si>
   <si>
     <t>Loan Rejected</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>PolicyType</t>
+  </si>
+  <si>
+    <t>PolicyNo</t>
+  </si>
+  <si>
+    <t>OldCarCustomerName</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>ReceiptDetails Clear</t>
+  </si>
+  <si>
+    <t>SOB15000185</t>
+  </si>
+  <si>
+    <t>123234567894</t>
+  </si>
+  <si>
+    <t>Invalid data</t>
+  </si>
+  <si>
+    <t>MSGAFinancierValue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +318,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -310,9 +350,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -320,6 +359,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,15 +677,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AT7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
@@ -660,25 +703,33 @@
     <col min="17" max="17" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7265625" customWidth="1"/>
+    <col min="20" max="20" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.54296875" customWidth="1"/>
+    <col min="23" max="23" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="12" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="58">
+    <row r="1" spans="1:46" ht="58">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -743,69 +794,90 @@
         <v>31</v>
       </c>
       <c r="V1" t="s">
+        <v>86</v>
+      </c>
+      <c r="W1" t="s">
         <v>32</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>33</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>51</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>52</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>53</v>
       </c>
+      <c r="AN1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:46">
       <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>9643785691</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
-        <v>123234567894</v>
+      <c r="E2" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -852,43 +924,46 @@
       <c r="U2" t="s">
         <v>61</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2">
+        <v>23</v>
+      </c>
+      <c r="W2" t="s">
         <v>38</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>60</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>5000</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>54</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>55</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:46">
       <c r="A3" t="s">
         <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>9643785691</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
-        <v>123234567894</v>
+      <c r="E3" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -923,10 +998,10 @@
       <c r="P3" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S3">
@@ -938,63 +1013,66 @@
       <c r="U3" t="s">
         <v>61</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="4" t="s">
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" t="s">
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" t="s">
         <v>60</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>5000</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>54</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>55</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:46">
       <c r="A4" t="s">
         <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>9643785691</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
-        <v>123234567894</v>
+      <c r="E4" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1029,10 +1107,10 @@
       <c r="P4" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S4">
@@ -1044,144 +1122,268 @@
       <c r="U4" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4">
+        <v>23</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="4" t="s">
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" t="s">
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" t="s">
         <v>60</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>5000</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>54</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>55</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:46">
       <c r="A5" t="s">
         <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>9643785691</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
-        <v>123234567894</v>
+      <c r="E5" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
       </c>
       <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5">
+        <v>123</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5">
+        <v>121111</v>
+      </c>
+      <c r="T5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5">
+        <v>23</v>
+      </c>
+      <c r="W5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ5">
+        <v>5000</v>
+      </c>
+      <c r="AK5" t="s">
         <v>54</v>
       </c>
-      <c r="H5" t="s">
+      <c r="AL5" t="s">
         <v>55</v>
       </c>
-      <c r="I5" t="s">
+      <c r="AM5" t="s">
         <v>56</v>
       </c>
-      <c r="J5" t="s">
+      <c r="AN5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ5">
+        <v>12105096</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
+      <c r="A6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9643785691</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K5" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L5" t="s">
+      <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N5" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O5" t="s">
+      <c r="L6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P5" t="s">
+      <c r="M6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="N6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R5">
+      <c r="O6" s="4">
         <v>123</v>
       </c>
-      <c r="S5" t="s">
+      <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="T5" t="s">
+      <c r="Q6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="U5" t="s">
+      <c r="R6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="V5">
+      <c r="S6" s="4">
         <v>121111</v>
       </c>
-      <c r="W5" t="s">
+      <c r="T6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="X5" t="s">
+      <c r="U6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="V6">
+        <v>23</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="X6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AL5">
+      <c r="AJ6" s="4">
         <v>5000</v>
       </c>
-      <c r="AM5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP5">
-        <v>12105096</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>71</v>
+      <c r="AK6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+    </row>
+    <row r="7" spans="1:46">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ7">
+        <v>121050</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AN6:AO6"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94077A76-B41C-416A-9139-03814ED61CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8444693B-F9ED-43F4-808D-59C548EE0C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>OrderId</t>
   </si>
@@ -297,6 +297,21 @@
   </si>
   <si>
     <t>MSGAFinancierValue</t>
+  </si>
+  <si>
+    <t>RegNum</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Chassis</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>MA0000000001296</t>
   </si>
 </sst>
 </file>
@@ -677,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:AT7"/>
+  <dimension ref="A1:AV7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AO12" sqref="AO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -727,9 +742,10 @@
     <col min="43" max="43" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="58">
+    <row r="1" spans="1:48" ht="58">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -865,8 +881,17 @@
       <c r="AS1" t="s">
         <v>81</v>
       </c>
+      <c r="AT1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:48">
       <c r="B2" t="s">
         <v>57</v>
       </c>
@@ -949,7 +974,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:48">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1058,7 +1083,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:48">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -1161,7 +1186,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:48">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -1264,8 +1289,17 @@
       <c r="AS5" t="s">
         <v>71</v>
       </c>
+      <c r="AT5">
+        <v>121212121</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV5">
+        <v>304567</v>
+      </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:48">
       <c r="A6" s="4" t="s">
         <v>82</v>
       </c>
@@ -1369,12 +1403,15 @@
       <c r="AS6" s="4"/>
       <c r="AT6" s="4"/>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:48">
       <c r="A7" t="s">
         <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>91</v>
       </c>
       <c r="AQ7">
         <v>121050</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8444693B-F9ED-43F4-808D-59C548EE0C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BB99DC-0072-4BB2-92B9-6895E65A3F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="94">
   <si>
     <t>OrderId</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>MA0000000001296</t>
+  </si>
+  <si>
+    <t>Loyalty Card</t>
+  </si>
+  <si>
+    <t>SOB15000093</t>
   </si>
 </sst>
 </file>
@@ -692,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:AV7"/>
+  <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AO12" sqref="AO12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1417,9 +1423,114 @@
         <v>121050</v>
       </c>
     </row>
+    <row r="8" spans="1:48">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9557106666</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="4">
+        <v>123</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="4">
+        <v>121111</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V8">
+        <v>23</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>5000</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AN8:AO8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BB99DC-0072-4BB2-92B9-6895E65A3F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B39812-3FA1-4269-B0D8-B757DE3C5191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
   <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AV16" sqref="AV16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B39812-3FA1-4269-B0D8-B757DE3C5191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329AF069-6450-4657-9B6F-DD4F5FF216D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="96">
   <si>
     <t>OrderId</t>
   </si>
@@ -318,6 +318,12 @@
   </si>
   <si>
     <t>SOB15000093</t>
+  </si>
+  <si>
+    <t>CCPPackageCode</t>
+  </si>
+  <si>
+    <t>E0020</t>
   </si>
 </sst>
 </file>
@@ -698,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:AV8"/>
+  <dimension ref="A1:AW8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AV16" sqref="AV16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -751,7 +757,7 @@
     <col min="46" max="46" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="58">
+    <row r="1" spans="1:49" ht="58">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -896,8 +902,11 @@
       <c r="AV1" t="s">
         <v>89</v>
       </c>
+      <c r="AW1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:49">
       <c r="B2" t="s">
         <v>57</v>
       </c>
@@ -980,7 +989,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1089,7 +1098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -1192,7 +1201,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:49">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -1304,8 +1313,11 @@
       <c r="AV5">
         <v>304567</v>
       </c>
+      <c r="AW5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:49">
       <c r="A6" s="4" t="s">
         <v>82</v>
       </c>
@@ -1409,7 +1421,7 @@
       <c r="AS6" s="4"/>
       <c r="AT6" s="4"/>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -1423,7 +1435,7 @@
         <v>121050</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:49">
       <c r="A8" t="s">
         <v>92</v>
       </c>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sprakash01\ProjectFiles\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329AF069-6450-4657-9B6F-DD4F5FF216D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA23C6F9-7397-4614-99A5-DBF3F5137DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -320,10 +320,10 @@
     <t>SOB15000093</t>
   </si>
   <si>
-    <t>CCPPackageCode</t>
-  </si>
-  <si>
-    <t>E0020</t>
+    <t>E0010</t>
+  </si>
+  <si>
+    <t>CCPPackageCodeWithoutEW</t>
   </si>
 </sst>
 </file>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
   <dimension ref="A1:AW8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AW10" sqref="AW10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -755,6 +755,7 @@
     <col min="44" max="44" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="58">
@@ -903,7 +904,7 @@
         <v>89</v>
       </c>
       <c r="AW1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:49">
@@ -1314,7 +1315,7 @@
         <v>304567</v>
       </c>
       <c r="AW5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:49">

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sprakash01\ProjectFiles\dms_Invoice_UIAutomation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA23C6F9-7397-4614-99A5-DBF3F5137DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C470E78A-941E-4B62-8216-DE719A69EFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="98">
   <si>
     <t>OrderId</t>
   </si>
@@ -323,7 +323,13 @@
     <t>E0010</t>
   </si>
   <si>
-    <t>CCPPackageCodeWithoutEW</t>
+    <t>CCPPackageCodeWithEW</t>
+  </si>
+  <si>
+    <t>12-12-2023</t>
+  </si>
+  <si>
+    <t>B2B - IGST - Individual - CCP - Extended Warranty -   Exchange</t>
   </si>
 </sst>
 </file>
@@ -704,15 +710,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:AW8"/>
+  <dimension ref="A1:AW10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AW10" sqref="AW10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.90625" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
@@ -1272,6 +1278,26 @@
       <c r="X5" t="s">
         <v>39</v>
       </c>
+      <c r="Y5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
       <c r="AI5" t="s">
         <v>60</v>
       </c>
@@ -1540,6 +1566,146 @@
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
     </row>
+    <row r="9" spans="1:49" ht="43.5">
+      <c r="A9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9557106666</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="4">
+        <v>123</v>
+      </c>
+      <c r="P9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9">
+        <v>121111</v>
+      </c>
+      <c r="T9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V9">
+        <v>23</v>
+      </c>
+      <c r="W9" t="s">
+        <v>38</v>
+      </c>
+      <c r="X9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ9">
+        <v>5000</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ9">
+        <v>12105096</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT9">
+        <v>121212121</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV9">
+        <v>304567</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49">
+      <c r="A10" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="AN6:AO6"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C470E78A-941E-4B62-8216-DE719A69EFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA93DB60-5301-4C1F-92ED-C178CB768A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="102">
   <si>
     <t>OrderId</t>
   </si>
@@ -330,6 +330,18 @@
   </si>
   <si>
     <t>B2B - IGST - Individual - CCP - Extended Warranty -   Exchange</t>
+  </si>
+  <si>
+    <t>B2B - IGST - Individual - ccp - Extended Warranty -  Exchange  - Leasing</t>
+  </si>
+  <si>
+    <t>Leasing</t>
+  </si>
+  <si>
+    <t>B2C</t>
+  </si>
+  <si>
+    <t>GSTUNREGISTERED</t>
   </si>
 </sst>
 </file>
@@ -710,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:AW10"/>
+  <dimension ref="A1:AW11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:AW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1614,7 +1626,7 @@
         <v>26</v>
       </c>
       <c r="Q9" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="R9" t="s">
         <v>34</v>
@@ -1703,8 +1715,279 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:49" ht="58">
+      <c r="A10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9557106666</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="4">
+        <v>123</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10">
+        <v>121111</v>
+      </c>
+      <c r="T10" t="s">
+        <v>13</v>
+      </c>
+      <c r="U10" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10">
+        <v>23</v>
+      </c>
+      <c r="W10" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ10">
+        <v>5000</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ10">
+        <v>12105096</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT10">
+        <v>121212121</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV10">
+        <v>304567</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="4">
+        <v>9557106666</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="4">
+        <v>123</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="R11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11">
+        <v>121111</v>
+      </c>
+      <c r="T11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V11">
+        <v>23</v>
+      </c>
+      <c r="W11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ11">
+        <v>5000</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ11">
+        <v>12105096</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT11">
+        <v>121212121</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV11">
+        <v>304567</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA93DB60-5301-4C1F-92ED-C178CB768A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6230AF5F-809B-4F23-918C-232BDD8E63B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="109">
   <si>
     <t>OrderId</t>
   </si>
@@ -329,19 +329,40 @@
     <t>12-12-2023</t>
   </si>
   <si>
-    <t>B2B - IGST - Individual - CCP - Extended Warranty -   Exchange</t>
-  </si>
-  <si>
-    <t>B2B - IGST - Individual - ccp - Extended Warranty -  Exchange  - Leasing</t>
-  </si>
-  <si>
     <t>Leasing</t>
   </si>
   <si>
-    <t>B2C</t>
-  </si>
-  <si>
     <t>GSTUNREGISTERED</t>
+  </si>
+  <si>
+    <t>BS3</t>
+  </si>
+  <si>
+    <t>E0000</t>
+  </si>
+  <si>
+    <t>E0020</t>
+  </si>
+  <si>
+    <t>BS4,BS6</t>
+  </si>
+  <si>
+    <t>BS8</t>
+  </si>
+  <si>
+    <t>BS0, BS1, BS2,BS5</t>
+  </si>
+  <si>
+    <t>BS9</t>
+  </si>
+  <si>
+    <t>BS7,BS10,BS11,BS12,BS13</t>
+  </si>
+  <si>
+    <t>BS14</t>
+  </si>
+  <si>
+    <t>Both</t>
   </si>
 </sst>
 </file>
@@ -722,712 +743,729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:AW11"/>
+  <dimension ref="A1:AX16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:AW11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.90625" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.54296875" customWidth="1"/>
-    <col min="23" max="23" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="58">
-      <c r="A1" t="s">
+    <row r="1" spans="1:50" ht="58">
+      <c r="B1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>62</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>86</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>45</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>52</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>53</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>76</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>77</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>78</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>79</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>80</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>81</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>87</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>88</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>89</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
-      <c r="B2" t="s">
+    <row r="2" spans="1:50">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>9643785691</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>123</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>34</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>121111</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>13</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>61</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>23</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>38</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>5000</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>54</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>55</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
-      <c r="A3" t="s">
+    <row r="3" spans="1:50">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>9643785691</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>16</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>21</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>234</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>121111</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>13</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>61</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>23</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="Z3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" s="1"/>
       <c r="AB3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
-      <c r="AE3" s="3" t="s">
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
-      <c r="AI3" t="s">
+      <c r="AI3" s="1"/>
+      <c r="AJ3" t="s">
         <v>60</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>5000</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>54</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>55</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
-      <c r="A4" t="s">
+    <row r="4" spans="1:50">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>9643785691</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>15</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>14</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>16</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>21</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>234</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>121111</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>13</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>61</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>23</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z4" s="1"/>
+      <c r="Z4" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
-      <c r="AI4" t="s">
+      <c r="AI4" s="1"/>
+      <c r="AJ4" t="s">
         <v>60</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>5000</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>54</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>55</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
-      <c r="A5" t="s">
+    <row r="5" spans="1:50">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>73</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>9643785691</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>15</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>16</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>17</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>123</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>35</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>34</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>121111</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>13</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>61</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>23</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>38</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="Z5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" s="1"/>
       <c r="AB5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
-      <c r="AE5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
-      <c r="AI5" t="s">
+      <c r="AI5" s="1"/>
+      <c r="AJ5" t="s">
         <v>60</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>5000</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>54</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>55</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>56</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>68</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>69</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>68</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>12105096</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AS5" t="s">
         <v>70</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>71</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>121212121</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AV5" t="s">
         <v>90</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <v>304567</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:50">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>9643785691</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="4">
+      <c r="P6" s="4">
         <v>123</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="4">
+      <c r="T6" s="4">
         <v>121111</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>23</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
@@ -1437,115 +1475,121 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
-      <c r="AI6" s="4" t="s">
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AK6" s="4">
         <v>5000</v>
       </c>
-      <c r="AK6" s="4" t="s">
+      <c r="AL6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AL6" s="4" t="s">
+      <c r="AM6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AM6" s="4" t="s">
+      <c r="AN6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AN6" s="7"/>
       <c r="AO6" s="7"/>
-      <c r="AP6" s="4"/>
+      <c r="AP6" s="7"/>
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
       <c r="AS6" s="4"/>
       <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
     </row>
-    <row r="7" spans="1:49">
-      <c r="A7" t="s">
+    <row r="7" spans="1:50">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>85</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>67</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>91</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>121050</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
-      <c r="A8" t="s">
+    <row r="8" spans="1:50">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>9557106666</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="4">
+      <c r="P8" s="4">
         <v>123</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="S8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="4">
+      <c r="T8" s="4">
         <v>121111</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="U8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>23</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
@@ -1555,444 +1599,1154 @@
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
-      <c r="AI8" s="4" t="s">
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AJ8" s="4">
+      <c r="AK8" s="4">
         <v>5000</v>
       </c>
-      <c r="AK8" s="4" t="s">
+      <c r="AL8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AL8" s="4" t="s">
+      <c r="AM8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AM8" s="4" t="s">
+      <c r="AN8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AN8" s="7"/>
       <c r="AO8" s="7"/>
-      <c r="AP8" s="4"/>
+      <c r="AP8" s="7"/>
       <c r="AQ8" s="4"/>
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
     </row>
-    <row r="9" spans="1:49" ht="43.5">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:50">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9557106666</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9">
+        <v>121111</v>
+      </c>
+      <c r="U9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W9">
+        <v>23</v>
+      </c>
+      <c r="X9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK9">
+        <v>5000</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR9">
+        <v>12105096</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU9">
+        <v>121212121</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW9">
+        <v>304567</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9557106666</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B9" t="s">
+      <c r="S10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10">
+        <v>121111</v>
+      </c>
+      <c r="U10" t="s">
+        <v>13</v>
+      </c>
+      <c r="V10" t="s">
+        <v>61</v>
+      </c>
+      <c r="W10">
+        <v>23</v>
+      </c>
+      <c r="X10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK10">
+        <v>5000</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR10">
+        <v>12105096</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU10">
+        <v>121212121</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW10">
+        <v>304567</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D11" s="4">
         <v>9557106666</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P11" s="4">
         <v>123</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q11" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S11" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11">
+        <v>121111</v>
+      </c>
+      <c r="U11" t="s">
+        <v>13</v>
+      </c>
+      <c r="V11" t="s">
+        <v>61</v>
+      </c>
+      <c r="W11">
+        <v>23</v>
+      </c>
+      <c r="X11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK11">
+        <v>5000</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR11">
+        <v>12105096</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU11">
+        <v>121212121</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW11">
+        <v>304567</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="4">
+        <v>9557106666</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12">
+        <v>121111</v>
+      </c>
+      <c r="U12" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12" t="s">
+        <v>61</v>
+      </c>
+      <c r="W12">
+        <v>23</v>
+      </c>
+      <c r="X12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK12">
+        <v>5000</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR12">
+        <v>12105096</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU12">
+        <v>121212121</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW12">
+        <v>304567</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9557106666</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S13" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13">
+        <v>121111</v>
+      </c>
+      <c r="U13" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" t="s">
+        <v>61</v>
+      </c>
+      <c r="W13">
+        <v>23</v>
+      </c>
+      <c r="X13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK13">
+        <v>5000</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR13">
+        <v>12105096</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU13">
+        <v>121212121</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW13">
+        <v>304567</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9557106666</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S14" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14">
+        <v>12222</v>
+      </c>
+      <c r="U14" t="s">
+        <v>13</v>
+      </c>
+      <c r="V14" t="s">
+        <v>61</v>
+      </c>
+      <c r="W14">
+        <v>23</v>
+      </c>
+      <c r="X14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK14">
+        <v>5000</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR14">
+        <v>12105096</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU14">
+        <v>121212121</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW14">
+        <v>304567</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="4">
+        <v>9643785691</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" t="s">
         <v>49</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S15" t="s">
         <v>34</v>
       </c>
-      <c r="S9">
-        <v>121111</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="T15">
+        <v>12222</v>
+      </c>
+      <c r="U15" t="s">
         <v>13</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V15" t="s">
         <v>61</v>
       </c>
-      <c r="V9">
-        <v>23</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="W15">
+        <v>43</v>
+      </c>
+      <c r="X15" t="s">
         <v>38</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y15" t="s">
         <v>39</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB9" s="3" t="s">
+      <c r="Z15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF9" s="1" t="s">
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" t="s">
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" t="s">
         <v>60</v>
       </c>
-      <c r="AJ9">
+      <c r="AK15">
         <v>5000</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL15" t="s">
         <v>54</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM15" t="s">
         <v>55</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN15" t="s">
         <v>56</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AO15" t="s">
         <v>68</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AP15" t="s">
         <v>69</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ15" t="s">
         <v>68</v>
       </c>
-      <c r="AQ9">
+      <c r="AR15">
         <v>12105096</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AS15" t="s">
         <v>70</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AT15" t="s">
         <v>71</v>
       </c>
-      <c r="AT9">
+      <c r="AU15">
         <v>121212121</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AV15" t="s">
         <v>90</v>
       </c>
-      <c r="AV9">
+      <c r="AW15">
         <v>304567</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AX15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="58">
-      <c r="A10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="4">
-        <v>9557106666</v>
-      </c>
-      <c r="D10" s="4" t="s">
+    <row r="16" spans="1:50">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9643785691</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G16" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="H16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="4">
+      <c r="P16" s="4">
         <v>123</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q16" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="R16" t="s">
+        <v>49</v>
+      </c>
+      <c r="S16" t="s">
         <v>34</v>
       </c>
-      <c r="S10">
-        <v>121111</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="T16">
+        <v>12222</v>
+      </c>
+      <c r="U16" t="s">
         <v>13</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V16" t="s">
         <v>61</v>
       </c>
-      <c r="V10">
-        <v>23</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="W16">
+        <v>43</v>
+      </c>
+      <c r="X16" t="s">
         <v>38</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y16" t="s">
         <v>39</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB10" s="3" t="s">
+      <c r="Z16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" t="s">
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" t="s">
         <v>60</v>
       </c>
-      <c r="AJ10">
+      <c r="AK16">
         <v>5000</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL16" t="s">
         <v>54</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM16" t="s">
         <v>55</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AN16" t="s">
         <v>56</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AO16" t="s">
         <v>68</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AP16" t="s">
         <v>69</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AQ16" t="s">
         <v>68</v>
       </c>
-      <c r="AQ10">
+      <c r="AR16">
         <v>12105096</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AS16" t="s">
         <v>70</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AT16" t="s">
         <v>71</v>
       </c>
-      <c r="AT10">
+      <c r="AU16">
         <v>121212121</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AV16" t="s">
         <v>90</v>
       </c>
-      <c r="AV10">
+      <c r="AW16">
         <v>304567</v>
       </c>
-      <c r="AW10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:49">
-      <c r="A11" t="s">
+      <c r="AX16" t="s">
         <v>100</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="4">
-        <v>9557106666</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="4">
-        <v>123</v>
-      </c>
-      <c r="P11" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="R11" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11">
-        <v>121111</v>
-      </c>
-      <c r="T11" t="s">
-        <v>13</v>
-      </c>
-      <c r="U11" t="s">
-        <v>61</v>
-      </c>
-      <c r="V11">
-        <v>23</v>
-      </c>
-      <c r="W11" t="s">
-        <v>38</v>
-      </c>
-      <c r="X11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ11">
-        <v>5000</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ11">
-        <v>12105096</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT11">
-        <v>121212121</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV11">
-        <v>304567</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AO8:AP8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6230AF5F-809B-4F23-918C-232BDD8E63B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CB0513-26A2-42CF-A5E1-4515D978CB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="113">
   <si>
     <t>OrderId</t>
   </si>
@@ -359,10 +359,22 @@
     <t>BS7,BS10,BS11,BS12,BS13</t>
   </si>
   <si>
-    <t>BS14</t>
-  </si>
-  <si>
     <t>Both</t>
+  </si>
+  <si>
+    <t>BS16</t>
+  </si>
+  <si>
+    <t>BS14,BS15,BS18,BS19,BS20,BS17</t>
+  </si>
+  <si>
+    <t>BS23</t>
+  </si>
+  <si>
+    <t>BS24</t>
+  </si>
+  <si>
+    <t>BS21,BS22,BS25,BS26,BS27</t>
   </si>
 </sst>
 </file>
@@ -743,16 +755,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:AX16"/>
+  <dimension ref="A1:AX19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.90625" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
@@ -2468,7 +2480,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
         <v>57</v>
@@ -2486,7 +2498,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>13</v>
@@ -2608,7 +2620,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
         <v>57</v>
@@ -2626,7 +2638,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>13</v>
@@ -2741,6 +2753,426 @@
       </c>
       <c r="AX16" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="4">
+        <v>9643785691</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T17">
+        <v>121111</v>
+      </c>
+      <c r="U17" t="s">
+        <v>13</v>
+      </c>
+      <c r="V17" t="s">
+        <v>61</v>
+      </c>
+      <c r="W17">
+        <v>23</v>
+      </c>
+      <c r="X17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK17">
+        <v>5000</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR17">
+        <v>12105096</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU17">
+        <v>121212121</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW17">
+        <v>304567</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="4">
+        <v>9643785691</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S18" t="s">
+        <v>34</v>
+      </c>
+      <c r="T18">
+        <v>121111</v>
+      </c>
+      <c r="U18" t="s">
+        <v>13</v>
+      </c>
+      <c r="V18" t="s">
+        <v>61</v>
+      </c>
+      <c r="W18">
+        <v>23</v>
+      </c>
+      <c r="X18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK18">
+        <v>5000</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR18">
+        <v>12105096</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU18">
+        <v>121212121</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW18">
+        <v>304567</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="4">
+        <v>9643785691</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S19" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19">
+        <v>121111</v>
+      </c>
+      <c r="U19" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" t="s">
+        <v>61</v>
+      </c>
+      <c r="W19">
+        <v>23</v>
+      </c>
+      <c r="X19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK19">
+        <v>5000</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR19">
+        <v>12105096</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU19">
+        <v>121212121</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW19">
+        <v>304567</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CB0513-26A2-42CF-A5E1-4515D978CB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C257DDF-C398-4D85-8E5C-6C1734EA6197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="123">
   <si>
     <t>OrderId</t>
   </si>
@@ -375,6 +375,36 @@
   </si>
   <si>
     <t>BS21,BS22,BS25,BS26,BS27</t>
+  </si>
+  <si>
+    <t>SOB15000339</t>
+  </si>
+  <si>
+    <t>BS30</t>
+  </si>
+  <si>
+    <t>BS28, BS29,BS31,BS32,BS33,BS34</t>
+  </si>
+  <si>
+    <t>SOB15000334</t>
+  </si>
+  <si>
+    <t>BS37</t>
+  </si>
+  <si>
+    <t>BS35, BS36, BS38,BS39,BS40,BS41</t>
+  </si>
+  <si>
+    <t>BS44</t>
+  </si>
+  <si>
+    <t>BS42,BS43,BS45,BS46,BS47,BS48</t>
+  </si>
+  <si>
+    <t>BS51</t>
+  </si>
+  <si>
+    <t>BS49,BS50,BS52,BS53,BS54,BS55</t>
   </si>
 </sst>
 </file>
@@ -755,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:AX19"/>
+  <dimension ref="A1:AX30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3175,6 +3205,1546 @@
         <v>101</v>
       </c>
     </row>
+    <row r="20" spans="1:50">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="4">
+        <v>9643785691</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T20">
+        <v>121111</v>
+      </c>
+      <c r="U20" t="s">
+        <v>13</v>
+      </c>
+      <c r="V20" t="s">
+        <v>61</v>
+      </c>
+      <c r="W20">
+        <v>23</v>
+      </c>
+      <c r="X20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK20">
+        <v>5000</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR20">
+        <v>12105096</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU20">
+        <v>121212121</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW20">
+        <v>304567</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="4">
+        <v>9643785691</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S21" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21">
+        <v>121111</v>
+      </c>
+      <c r="U21" t="s">
+        <v>13</v>
+      </c>
+      <c r="V21" t="s">
+        <v>61</v>
+      </c>
+      <c r="W21">
+        <v>23</v>
+      </c>
+      <c r="X21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK21">
+        <v>5000</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR21">
+        <v>12105096</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU21">
+        <v>121212121</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW21">
+        <v>304567</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="4">
+        <v>9643785691</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T22">
+        <v>121111</v>
+      </c>
+      <c r="U22" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" t="s">
+        <v>61</v>
+      </c>
+      <c r="W22">
+        <v>23</v>
+      </c>
+      <c r="X22" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK22">
+        <v>5000</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR22">
+        <v>12105096</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU22">
+        <v>121212121</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW22">
+        <v>304567</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="4">
+        <v>9643785691</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23" t="s">
+        <v>49</v>
+      </c>
+      <c r="S23" t="s">
+        <v>34</v>
+      </c>
+      <c r="T23">
+        <v>12222</v>
+      </c>
+      <c r="U23" t="s">
+        <v>13</v>
+      </c>
+      <c r="V23" t="s">
+        <v>61</v>
+      </c>
+      <c r="W23">
+        <v>43</v>
+      </c>
+      <c r="X23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK23">
+        <v>5000</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR23">
+        <v>12105096</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU23">
+        <v>121212121</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW23">
+        <v>304567</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="4">
+        <v>9643785691</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" t="s">
+        <v>49</v>
+      </c>
+      <c r="S24" t="s">
+        <v>34</v>
+      </c>
+      <c r="T24">
+        <v>12222</v>
+      </c>
+      <c r="U24" t="s">
+        <v>13</v>
+      </c>
+      <c r="V24" t="s">
+        <v>61</v>
+      </c>
+      <c r="W24">
+        <v>43</v>
+      </c>
+      <c r="X24" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK24">
+        <v>5000</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR24">
+        <v>12105096</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU24">
+        <v>121212121</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW24">
+        <v>304567</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="4">
+        <v>9557106666</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" t="s">
+        <v>49</v>
+      </c>
+      <c r="S25" t="s">
+        <v>34</v>
+      </c>
+      <c r="T25">
+        <v>121111</v>
+      </c>
+      <c r="U25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V25" t="s">
+        <v>61</v>
+      </c>
+      <c r="W25">
+        <v>23</v>
+      </c>
+      <c r="X25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK25">
+        <v>5000</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR25">
+        <v>12105096</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU25">
+        <v>121212121</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW25">
+        <v>304567</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="4">
+        <v>9557106666</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S26" t="s">
+        <v>34</v>
+      </c>
+      <c r="T26">
+        <v>121111</v>
+      </c>
+      <c r="U26" t="s">
+        <v>13</v>
+      </c>
+      <c r="V26" t="s">
+        <v>61</v>
+      </c>
+      <c r="W26">
+        <v>23</v>
+      </c>
+      <c r="X26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK26">
+        <v>5000</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR26">
+        <v>12105096</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU26">
+        <v>121212121</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW26">
+        <v>304567</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="4">
+        <v>9643785691</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S27" t="s">
+        <v>34</v>
+      </c>
+      <c r="T27">
+        <v>121111</v>
+      </c>
+      <c r="U27" t="s">
+        <v>13</v>
+      </c>
+      <c r="V27" t="s">
+        <v>61</v>
+      </c>
+      <c r="W27">
+        <v>23</v>
+      </c>
+      <c r="X27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK27">
+        <v>5000</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR27">
+        <v>12105096</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU27">
+        <v>121212121</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW27">
+        <v>304567</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="4">
+        <v>9643785691</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S28" t="s">
+        <v>34</v>
+      </c>
+      <c r="T28">
+        <v>121111</v>
+      </c>
+      <c r="U28" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" t="s">
+        <v>61</v>
+      </c>
+      <c r="W28">
+        <v>23</v>
+      </c>
+      <c r="X28" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK28">
+        <v>5000</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR28">
+        <v>12105096</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU28">
+        <v>121212121</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW28">
+        <v>304567</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="4">
+        <v>9643785691</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T29">
+        <v>121111</v>
+      </c>
+      <c r="U29" t="s">
+        <v>13</v>
+      </c>
+      <c r="V29" t="s">
+        <v>61</v>
+      </c>
+      <c r="W29">
+        <v>23</v>
+      </c>
+      <c r="X29" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK29">
+        <v>5000</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR29">
+        <v>12105096</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU29">
+        <v>121212121</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW29">
+        <v>304567</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="4">
+        <v>9643785691</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S30" t="s">
+        <v>34</v>
+      </c>
+      <c r="T30">
+        <v>121111</v>
+      </c>
+      <c r="U30" t="s">
+        <v>13</v>
+      </c>
+      <c r="V30" t="s">
+        <v>61</v>
+      </c>
+      <c r="W30">
+        <v>23</v>
+      </c>
+      <c r="X30" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK30">
+        <v>5000</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR30">
+        <v>12105096</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU30">
+        <v>121212121</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW30">
+        <v>304567</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="AO6:AP6"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C257DDF-C398-4D85-8E5C-6C1734EA6197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EA9D46-3595-415F-806E-C7BD1622937C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="143">
   <si>
     <t>OrderId</t>
   </si>
@@ -405,13 +405,73 @@
   </si>
   <si>
     <t>BS49,BS50,BS52,BS53,BS54,BS55</t>
+  </si>
+  <si>
+    <t>BS58</t>
+  </si>
+  <si>
+    <t>BS46,BS57,BS59,BS60,BS61,BS62</t>
+  </si>
+  <si>
+    <t>SOB15000138</t>
+  </si>
+  <si>
+    <t>BS65</t>
+  </si>
+  <si>
+    <t>BS63, BS64, BS66,BS67,BS68,BS69</t>
+  </si>
+  <si>
+    <t>BS70,BS71,BS73,BS74,BS75,BS76</t>
+  </si>
+  <si>
+    <t>BS72</t>
+  </si>
+  <si>
+    <t>SOB15000155</t>
+  </si>
+  <si>
+    <t>BS79</t>
+  </si>
+  <si>
+    <t>BS77, BS78,BS80,BS81,BS82,BS83</t>
+  </si>
+  <si>
+    <t>SOB15000044</t>
+  </si>
+  <si>
+    <t>SOB17001574</t>
+  </si>
+  <si>
+    <t>SOB15000046</t>
+  </si>
+  <si>
+    <t>BS86 (old)</t>
+  </si>
+  <si>
+    <t>BS86 (older)</t>
+  </si>
+  <si>
+    <t>BS86 (New)</t>
+  </si>
+  <si>
+    <t>SOB08000049</t>
+  </si>
+  <si>
+    <t>SOB15003178</t>
+  </si>
+  <si>
+    <t>BS87  Booked</t>
+  </si>
+  <si>
+    <t>BS 87 Cancelled</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +497,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF444444"/>
+      <name val="Roboto_regular"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -458,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -470,6 +535,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -785,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:AX30"/>
+  <dimension ref="A1:AX43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1533,8 +1599,8 @@
       <c r="AN6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
       <c r="AS6" s="4"/>
@@ -1657,8 +1723,8 @@
       <c r="AN8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
       <c r="AQ8" s="4"/>
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
@@ -4743,6 +4809,1181 @@
       </c>
       <c r="AX30" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="7">
+        <v>9434188439</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S31" t="s">
+        <v>34</v>
+      </c>
+      <c r="T31">
+        <v>121111</v>
+      </c>
+      <c r="U31" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" t="s">
+        <v>61</v>
+      </c>
+      <c r="W31">
+        <v>23</v>
+      </c>
+      <c r="X31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK31">
+        <v>5000</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR31">
+        <v>12105096</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU31">
+        <v>121212121</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW31">
+        <v>304567</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="7">
+        <v>9434188439</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S32" t="s">
+        <v>34</v>
+      </c>
+      <c r="T32">
+        <v>121111</v>
+      </c>
+      <c r="U32" t="s">
+        <v>13</v>
+      </c>
+      <c r="V32" t="s">
+        <v>61</v>
+      </c>
+      <c r="W32">
+        <v>23</v>
+      </c>
+      <c r="X32" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK32">
+        <v>5000</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR32">
+        <v>12105096</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU32">
+        <v>121212121</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW32">
+        <v>304567</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="7">
+        <v>9434188439</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" t="s">
+        <v>49</v>
+      </c>
+      <c r="S33" t="s">
+        <v>34</v>
+      </c>
+      <c r="T33">
+        <v>121111</v>
+      </c>
+      <c r="U33" t="s">
+        <v>13</v>
+      </c>
+      <c r="V33" t="s">
+        <v>61</v>
+      </c>
+      <c r="W33">
+        <v>23</v>
+      </c>
+      <c r="X33" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK33">
+        <v>5000</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR33">
+        <v>12105096</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU33">
+        <v>121212121</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW33">
+        <v>304567</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="7">
+        <v>9434188439</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S34" t="s">
+        <v>34</v>
+      </c>
+      <c r="T34">
+        <v>121111</v>
+      </c>
+      <c r="U34" t="s">
+        <v>13</v>
+      </c>
+      <c r="V34" t="s">
+        <v>61</v>
+      </c>
+      <c r="W34">
+        <v>23</v>
+      </c>
+      <c r="X34" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK34">
+        <v>5000</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR34">
+        <v>12105096</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU34">
+        <v>121212121</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW34">
+        <v>304567</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="4">
+        <v>7042370511</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>26</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S35" t="s">
+        <v>34</v>
+      </c>
+      <c r="T35">
+        <v>121111</v>
+      </c>
+      <c r="U35" t="s">
+        <v>13</v>
+      </c>
+      <c r="V35" t="s">
+        <v>61</v>
+      </c>
+      <c r="W35">
+        <v>23</v>
+      </c>
+      <c r="X35" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK35">
+        <v>5000</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR35">
+        <v>12105096</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU35">
+        <v>121212121</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW35">
+        <v>304567</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="4">
+        <v>7042370511</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P36" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>26</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S36" t="s">
+        <v>34</v>
+      </c>
+      <c r="T36">
+        <v>121111</v>
+      </c>
+      <c r="U36" t="s">
+        <v>13</v>
+      </c>
+      <c r="V36" t="s">
+        <v>61</v>
+      </c>
+      <c r="W36">
+        <v>23</v>
+      </c>
+      <c r="X36" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK36">
+        <v>5000</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR36">
+        <v>12105096</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU36">
+        <v>121212121</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW36">
+        <v>304567</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="4">
+        <v>7042370511</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P37" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37" t="s">
+        <v>49</v>
+      </c>
+      <c r="S37" t="s">
+        <v>34</v>
+      </c>
+      <c r="T37">
+        <v>12222</v>
+      </c>
+      <c r="U37" t="s">
+        <v>13</v>
+      </c>
+      <c r="V37" t="s">
+        <v>61</v>
+      </c>
+      <c r="W37">
+        <v>43</v>
+      </c>
+      <c r="X37" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK37">
+        <v>5000</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR37">
+        <v>12105096</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU37">
+        <v>121212121</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW37">
+        <v>304567</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="4">
+        <v>7042370511</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P38" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>26</v>
+      </c>
+      <c r="R38" t="s">
+        <v>49</v>
+      </c>
+      <c r="S38" t="s">
+        <v>34</v>
+      </c>
+      <c r="T38">
+        <v>12222</v>
+      </c>
+      <c r="U38" t="s">
+        <v>13</v>
+      </c>
+      <c r="V38" t="s">
+        <v>61</v>
+      </c>
+      <c r="W38">
+        <v>43</v>
+      </c>
+      <c r="X38" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK38">
+        <v>5000</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR38">
+        <v>12105096</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU38">
+        <v>121212121</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW38">
+        <v>304567</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EA9D46-3595-415F-806E-C7BD1622937C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969E9C4E-D1D5-402A-9D0B-18D7676D6D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="153">
   <si>
     <t>OrderId</t>
   </si>
@@ -410,9 +410,6 @@
     <t>BS58</t>
   </si>
   <si>
-    <t>BS46,BS57,BS59,BS60,BS61,BS62</t>
-  </si>
-  <si>
     <t>SOB15000138</t>
   </si>
   <si>
@@ -465,13 +462,46 @@
   </si>
   <si>
     <t>BS 87 Cancelled</t>
+  </si>
+  <si>
+    <t>RegNumScrapge</t>
+  </si>
+  <si>
+    <t>RegNumExchnage</t>
+  </si>
+  <si>
+    <t>HR26AH4038</t>
+  </si>
+  <si>
+    <t>HR26CE4343</t>
+  </si>
+  <si>
+    <t>'28-10-2023</t>
+  </si>
+  <si>
+    <t>BS56,BS57,BS59,BS60,BS61,BS62</t>
+  </si>
+  <si>
+    <t>BS88, BS89, BS91,BS92,BS93,BS94</t>
+  </si>
+  <si>
+    <t>BS90</t>
+  </si>
+  <si>
+    <t>BS95,96,98,99,100,101</t>
+  </si>
+  <si>
+    <t>BS97</t>
+  </si>
+  <si>
+    <t>SOB15000081</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +532,11 @@
       <color rgb="FF444444"/>
       <name val="Roboto_regular"/>
     </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF444444"/>
+      <name val="Roboto_regular"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -523,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -537,6 +572,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,16 +887,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:AX43"/>
+  <dimension ref="A1:AZ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="AG19" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="28.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
@@ -906,9 +942,11 @@
     <col min="48" max="48" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="6.90625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="22" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="58">
+    <row r="1" spans="1:52" ht="58">
       <c r="B1" t="s">
         <v>72</v>
       </c>
@@ -1056,8 +1094,14 @@
       <c r="AX1" t="s">
         <v>95</v>
       </c>
+      <c r="AY1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:52">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1142,8 +1186,14 @@
       <c r="AN2" t="s">
         <v>56</v>
       </c>
+      <c r="AY2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:52">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1254,8 +1304,14 @@
       <c r="AN3" t="s">
         <v>56</v>
       </c>
+      <c r="AY3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:52">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1360,8 +1416,14 @@
       <c r="AN4" t="s">
         <v>56</v>
       </c>
+      <c r="AY4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:52">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1499,8 +1561,14 @@
       <c r="AX5" t="s">
         <v>94</v>
       </c>
+      <c r="AY5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:52">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1574,9 +1642,13 @@
       <c r="Y6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Z6" s="4"/>
+      <c r="Z6" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
+      <c r="AB6" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
@@ -1604,10 +1676,18 @@
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
       <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
+      <c r="AT6" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="AU6" s="4"/>
+      <c r="AY6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:52">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1623,8 +1703,20 @@
       <c r="AR7">
         <v>121050</v>
       </c>
+      <c r="AT7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:52">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1698,14 +1790,24 @@
       <c r="Y8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Z8" s="4"/>
+      <c r="Z8" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
+      <c r="AB8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
+      <c r="AF8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4" t="s">
@@ -1728,10 +1830,21 @@
       <c r="AQ8" s="4"/>
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
+      <c r="AT8" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="AU8" s="4"/>
+      <c r="AX8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:52">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1870,8 +1983,14 @@
       <c r="AX9" t="s">
         <v>94</v>
       </c>
+      <c r="AY9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:52">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2010,8 +2129,14 @@
       <c r="AX10" t="s">
         <v>100</v>
       </c>
+      <c r="AY10" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:52">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2150,8 +2275,14 @@
       <c r="AX11" t="s">
         <v>101</v>
       </c>
+      <c r="AY11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:52">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2290,8 +2421,14 @@
       <c r="AX12" t="s">
         <v>94</v>
       </c>
+      <c r="AY12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:52">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2430,8 +2567,14 @@
       <c r="AX13" t="s">
         <v>100</v>
       </c>
+      <c r="AY13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:52">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2570,8 +2713,14 @@
       <c r="AX14" t="s">
         <v>94</v>
       </c>
+      <c r="AY14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:52">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2710,8 +2859,14 @@
       <c r="AX15" t="s">
         <v>94</v>
       </c>
+      <c r="AY15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:52">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2850,8 +3005,14 @@
       <c r="AX16" t="s">
         <v>100</v>
       </c>
+      <c r="AY16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:52">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2990,8 +3151,14 @@
       <c r="AX17" t="s">
         <v>94</v>
       </c>
+      <c r="AY17" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:52">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3130,8 +3297,14 @@
       <c r="AX18" t="s">
         <v>100</v>
       </c>
+      <c r="AY18" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:52">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3270,8 +3443,14 @@
       <c r="AX19" t="s">
         <v>101</v>
       </c>
+      <c r="AY19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:52">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3410,8 +3589,14 @@
       <c r="AX20" t="s">
         <v>94</v>
       </c>
+      <c r="AY20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:52">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3550,8 +3735,14 @@
       <c r="AX21" t="s">
         <v>100</v>
       </c>
+      <c r="AY21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:52">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3690,8 +3881,14 @@
       <c r="AX22" t="s">
         <v>101</v>
       </c>
+      <c r="AY22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:52">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3830,8 +4027,14 @@
       <c r="AX23" t="s">
         <v>94</v>
       </c>
+      <c r="AY23" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:52">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3970,8 +4173,14 @@
       <c r="AX24" t="s">
         <v>100</v>
       </c>
+      <c r="AY24" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:52">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4110,8 +4319,14 @@
       <c r="AX25" t="s">
         <v>94</v>
       </c>
+      <c r="AY25" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:52">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4250,8 +4465,14 @@
       <c r="AX26" t="s">
         <v>100</v>
       </c>
+      <c r="AY26" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:52">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4390,8 +4611,14 @@
       <c r="AX27" t="s">
         <v>94</v>
       </c>
+      <c r="AY27" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:52">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4530,8 +4757,14 @@
       <c r="AX28" t="s">
         <v>100</v>
       </c>
+      <c r="AY28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:52">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4670,8 +4903,14 @@
       <c r="AX29" t="s">
         <v>94</v>
       </c>
+      <c r="AY29" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:52">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4810,16 +5049,22 @@
       <c r="AX30" t="s">
         <v>100</v>
       </c>
+      <c r="AY30" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:52">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" t="s">
         <v>124</v>
-      </c>
-      <c r="C31" t="s">
-        <v>125</v>
       </c>
       <c r="D31" s="7">
         <v>9434188439</v>
@@ -4950,8 +5195,14 @@
       <c r="AX31" t="s">
         <v>94</v>
       </c>
+      <c r="AY31" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:52">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4959,7 +5210,7 @@
         <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" s="7">
         <v>9434188439</v>
@@ -5090,16 +5341,22 @@
       <c r="AX32" t="s">
         <v>100</v>
       </c>
+      <c r="AY32" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:52">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D33" s="7">
         <v>9434188439</v>
@@ -5230,16 +5487,22 @@
       <c r="AX33" t="s">
         <v>94</v>
       </c>
+      <c r="AY33" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="34" spans="1:50">
+    <row r="34" spans="1:52">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D34" s="7">
         <v>9434188439</v>
@@ -5370,16 +5633,22 @@
       <c r="AX34" t="s">
         <v>100</v>
       </c>
+      <c r="AY34" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="35" spans="1:50">
+    <row r="35" spans="1:52">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" s="4">
         <v>7042370511</v>
@@ -5510,16 +5779,22 @@
       <c r="AX35" t="s">
         <v>94</v>
       </c>
+      <c r="AY35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="36" spans="1:50">
+    <row r="36" spans="1:52">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
         <v>129</v>
-      </c>
-      <c r="C36" t="s">
-        <v>130</v>
       </c>
       <c r="D36" s="4">
         <v>7042370511</v>
@@ -5650,16 +5925,22 @@
       <c r="AX36" t="s">
         <v>100</v>
       </c>
+      <c r="AY36" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="37" spans="1:50">
+    <row r="37" spans="1:52">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" s="4">
         <v>7042370511</v>
@@ -5790,16 +6071,22 @@
       <c r="AX37" t="s">
         <v>94</v>
       </c>
+      <c r="AY37" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="38" spans="1:50">
+    <row r="38" spans="1:52">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" s="4">
         <v>7042370511</v>
@@ -5930,60 +6217,650 @@
       <c r="AX38" t="s">
         <v>100</v>
       </c>
+      <c r="AY38" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>145</v>
+      </c>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:52">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:52">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:50">
+    <row r="41" spans="1:52">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:50">
+    <row r="42" spans="1:52">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:50">
+    <row r="43" spans="1:52">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="9">
+        <v>8506074541</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P44" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>26</v>
+      </c>
+      <c r="R44" t="s">
+        <v>49</v>
+      </c>
+      <c r="S44" t="s">
+        <v>34</v>
+      </c>
+      <c r="T44">
+        <v>121111</v>
+      </c>
+      <c r="U44" t="s">
+        <v>13</v>
+      </c>
+      <c r="V44" t="s">
+        <v>61</v>
+      </c>
+      <c r="W44">
+        <v>23</v>
+      </c>
+      <c r="X44" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK44">
+        <v>5000</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR44">
+        <v>12105096</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU44">
+        <v>121212121</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW44">
+        <v>304567</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="9">
+        <v>8506074541</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P45" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>26</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S45" t="s">
+        <v>34</v>
+      </c>
+      <c r="T45">
+        <v>121111</v>
+      </c>
+      <c r="U45" t="s">
+        <v>13</v>
+      </c>
+      <c r="V45" t="s">
+        <v>61</v>
+      </c>
+      <c r="W45">
+        <v>23</v>
+      </c>
+      <c r="X45" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK45">
+        <v>5000</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR45">
+        <v>12105096</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU45">
+        <v>121212121</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW45">
+        <v>304567</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="9">
+        <v>8506074541</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P46" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>26</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S46" t="s">
+        <v>34</v>
+      </c>
+      <c r="T46">
+        <v>121111</v>
+      </c>
+      <c r="U46" t="s">
+        <v>13</v>
+      </c>
+      <c r="V46" t="s">
+        <v>61</v>
+      </c>
+      <c r="W46">
+        <v>23</v>
+      </c>
+      <c r="X46" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK46">
+        <v>5000</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR46">
+        <v>12105096</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU46">
+        <v>121212121</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW46">
+        <v>304567</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="9">
+        <v>8506074541</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>26</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S47" t="s">
+        <v>34</v>
+      </c>
+      <c r="T47">
+        <v>121111</v>
+      </c>
+      <c r="U47" t="s">
+        <v>13</v>
+      </c>
+      <c r="V47" t="s">
+        <v>61</v>
+      </c>
+      <c r="W47">
+        <v>23</v>
+      </c>
+      <c r="X47" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK47">
+        <v>5000</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR47">
+        <v>12105096</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU47">
+        <v>121212121</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW47">
+        <v>304567</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY47" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969E9C4E-D1D5-402A-9D0B-18D7676D6D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0102C53A-6804-4D82-BB0C-23BE06065554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="162">
   <si>
     <t>OrderId</t>
   </si>
@@ -495,6 +495,33 @@
   </si>
   <si>
     <t>SOB15000081</t>
+  </si>
+  <si>
+    <t>BS104</t>
+  </si>
+  <si>
+    <t>BS102,103,105,106,107,108</t>
+  </si>
+  <si>
+    <t>SOB15000098</t>
+  </si>
+  <si>
+    <t>BS111</t>
+  </si>
+  <si>
+    <t>BS118</t>
+  </si>
+  <si>
+    <t>BS116,117,119,120,121,122</t>
+  </si>
+  <si>
+    <t>BS123,124,126,127,128,129</t>
+  </si>
+  <si>
+    <t>BS125</t>
+  </si>
+  <si>
+    <t>bs109,110,112,113,114,115</t>
   </si>
 </sst>
 </file>
@@ -558,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -571,8 +598,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:AZ47"/>
+  <dimension ref="A1:AZ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG19" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1671,8 +1701,8 @@
       <c r="AN6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
       <c r="AS6" s="4"/>
@@ -1825,8 +1855,8 @@
       <c r="AN8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
       <c r="AQ8" s="4"/>
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
@@ -6289,7 +6319,7 @@
       <c r="C44" t="s">
         <v>152</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>8506074541</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -6435,7 +6465,7 @@
       <c r="C45" t="s">
         <v>152</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>8506074541</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -6581,7 +6611,7 @@
       <c r="C46" t="s">
         <v>152</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>8506074541</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -6727,7 +6757,7 @@
       <c r="C47" t="s">
         <v>152</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>8506074541</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -6860,6 +6890,1174 @@
         <v>144</v>
       </c>
       <c r="AZ47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:52">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="4">
+        <v>9971141630</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P48" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>26</v>
+      </c>
+      <c r="R48" t="s">
+        <v>49</v>
+      </c>
+      <c r="S48" t="s">
+        <v>34</v>
+      </c>
+      <c r="T48">
+        <v>12222</v>
+      </c>
+      <c r="U48" t="s">
+        <v>13</v>
+      </c>
+      <c r="V48" t="s">
+        <v>61</v>
+      </c>
+      <c r="W48">
+        <v>43</v>
+      </c>
+      <c r="X48" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK48">
+        <v>5000</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR48">
+        <v>12105096</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU48">
+        <v>121212121</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW48">
+        <v>304567</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="4">
+        <v>9971141630</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P49" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>26</v>
+      </c>
+      <c r="R49" t="s">
+        <v>49</v>
+      </c>
+      <c r="S49" t="s">
+        <v>34</v>
+      </c>
+      <c r="T49">
+        <v>12222</v>
+      </c>
+      <c r="U49" t="s">
+        <v>13</v>
+      </c>
+      <c r="V49" t="s">
+        <v>61</v>
+      </c>
+      <c r="W49">
+        <v>43</v>
+      </c>
+      <c r="X49" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK49">
+        <v>5000</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR49">
+        <v>12105096</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU49">
+        <v>121212121</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW49">
+        <v>304567</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="4">
+        <v>9971141630</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P50" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>26</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S50" t="s">
+        <v>34</v>
+      </c>
+      <c r="T50">
+        <v>121111</v>
+      </c>
+      <c r="U50" t="s">
+        <v>13</v>
+      </c>
+      <c r="V50" t="s">
+        <v>61</v>
+      </c>
+      <c r="W50">
+        <v>23</v>
+      </c>
+      <c r="X50" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK50">
+        <v>5000</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR50">
+        <v>12105096</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU50">
+        <v>121212121</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW50">
+        <v>304567</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51">
+        <v>9971141630</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P51" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>26</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S51" t="s">
+        <v>34</v>
+      </c>
+      <c r="T51">
+        <v>121111</v>
+      </c>
+      <c r="U51" t="s">
+        <v>13</v>
+      </c>
+      <c r="V51" t="s">
+        <v>61</v>
+      </c>
+      <c r="W51">
+        <v>23</v>
+      </c>
+      <c r="X51" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC51" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK51">
+        <v>5000</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR51">
+        <v>12105096</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU51">
+        <v>121212121</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW51">
+        <v>304567</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="8">
+        <v>9557106666</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P52" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>26</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S52" t="s">
+        <v>34</v>
+      </c>
+      <c r="T52">
+        <v>121111</v>
+      </c>
+      <c r="U52" t="s">
+        <v>13</v>
+      </c>
+      <c r="V52" t="s">
+        <v>61</v>
+      </c>
+      <c r="W52">
+        <v>23</v>
+      </c>
+      <c r="X52" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK52">
+        <v>5000</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR52">
+        <v>12105096</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU52">
+        <v>121212121</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW52">
+        <v>304567</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="8">
+        <v>9557106666</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P53" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>26</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S53" t="s">
+        <v>34</v>
+      </c>
+      <c r="T53">
+        <v>121111</v>
+      </c>
+      <c r="U53" t="s">
+        <v>13</v>
+      </c>
+      <c r="V53" t="s">
+        <v>61</v>
+      </c>
+      <c r="W53">
+        <v>23</v>
+      </c>
+      <c r="X53" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK53">
+        <v>5000</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR53">
+        <v>12105096</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU53">
+        <v>121212121</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW53">
+        <v>304567</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="8">
+        <v>9557106666</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P54" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>26</v>
+      </c>
+      <c r="R54" t="s">
+        <v>49</v>
+      </c>
+      <c r="S54" t="s">
+        <v>34</v>
+      </c>
+      <c r="T54">
+        <v>121111</v>
+      </c>
+      <c r="U54" t="s">
+        <v>13</v>
+      </c>
+      <c r="V54" t="s">
+        <v>61</v>
+      </c>
+      <c r="W54">
+        <v>23</v>
+      </c>
+      <c r="X54" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK54">
+        <v>5000</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR54">
+        <v>12105096</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU54">
+        <v>121212121</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW54">
+        <v>304567</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="8">
+        <v>9557106666</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P55" s="4">
+        <v>123</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>26</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S55" t="s">
+        <v>34</v>
+      </c>
+      <c r="T55">
+        <v>121111</v>
+      </c>
+      <c r="U55" t="s">
+        <v>13</v>
+      </c>
+      <c r="V55" t="s">
+        <v>61</v>
+      </c>
+      <c r="W55">
+        <v>23</v>
+      </c>
+      <c r="X55" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK55">
+        <v>5000</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR55">
+        <v>12105096</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU55">
+        <v>121212121</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW55">
+        <v>304567</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ55" t="s">
         <v>145</v>
       </c>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0102C53A-6804-4D82-BB0C-23BE06065554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33903272-EB0E-4536-949B-ABACCF2CB19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="163">
   <si>
     <t>OrderId</t>
   </si>
@@ -233,9 +233,6 @@
     <t>01-11-2023</t>
   </si>
   <si>
-    <t>25-11-2023</t>
-  </si>
-  <si>
     <t>LoanDisbursalDate</t>
   </si>
   <si>
@@ -326,9 +323,6 @@
     <t>CCPPackageCodeWithEW</t>
   </si>
   <si>
-    <t>12-12-2023</t>
-  </si>
-  <si>
     <t>Leasing</t>
   </si>
   <si>
@@ -522,6 +516,15 @@
   </si>
   <si>
     <t>bs109,110,112,113,114,115</t>
+  </si>
+  <si>
+    <t>AD1</t>
+  </si>
+  <si>
+    <t>AD2</t>
+  </si>
+  <si>
+    <t>31-12-2023</t>
   </si>
 </sst>
 </file>
@@ -917,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:AZ55"/>
+  <dimension ref="A1:BB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="Z2" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -976,9 +979,9 @@
     <col min="52" max="52" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="58">
+    <row r="1" spans="1:54" ht="58">
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1041,7 +1044,7 @@
         <v>31</v>
       </c>
       <c r="W1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X1" t="s">
         <v>32</v>
@@ -1068,7 +1071,7 @@
         <v>45</v>
       </c>
       <c r="AF1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>46</v>
@@ -1095,43 +1098,49 @@
         <v>53</v>
       </c>
       <c r="AO1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP1" t="s">
         <v>76</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>77</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>78</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>79</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>80</v>
       </c>
-      <c r="AT1" t="s">
-        <v>81</v>
-      </c>
       <c r="AU1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV1" t="s">
         <v>87</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>88</v>
       </c>
-      <c r="AW1" t="s">
-        <v>89</v>
-      </c>
       <c r="AX1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AY1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ1" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:54">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1145,7 +1154,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -1201,6 +1210,9 @@
       <c r="Y2" t="s">
         <v>39</v>
       </c>
+      <c r="AC2" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="AJ2" t="s">
         <v>60</v>
       </c>
@@ -1217,18 +1229,24 @@
         <v>56</v>
       </c>
       <c r="AY2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ2" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA2">
+        <v>239</v>
+      </c>
+      <c r="BB2">
+        <v>822</v>
       </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:54">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1240,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -1307,7 +1325,7 @@
         <v>63</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -1335,18 +1353,24 @@
         <v>56</v>
       </c>
       <c r="AY3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ3" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA3">
+        <v>240</v>
+      </c>
+      <c r="BB3">
+        <v>823</v>
       </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:54">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
@@ -1358,7 +1382,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
@@ -1422,7 +1446,9 @@
       </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
+      <c r="AC4" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="AD4" s="3" t="s">
         <v>64</v>
       </c>
@@ -1447,21 +1473,27 @@
         <v>56</v>
       </c>
       <c r="AY4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ4" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA4">
+        <v>241</v>
+      </c>
+      <c r="BB4">
+        <v>824</v>
       </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:54">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2">
         <v>9643785691</v>
@@ -1470,7 +1502,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
@@ -1534,7 +1566,7 @@
         <v>63</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -1562,51 +1594,57 @@
         <v>56</v>
       </c>
       <c r="AO5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP5" t="s">
         <v>68</v>
       </c>
-      <c r="AP5" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR5">
         <v>12105096</v>
       </c>
       <c r="AS5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT5" t="s">
         <v>70</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>71</v>
       </c>
       <c r="AU5">
         <v>121212121</v>
       </c>
       <c r="AV5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW5">
         <v>304567</v>
       </c>
       <c r="AX5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ5" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA5">
+        <v>242</v>
+      </c>
+      <c r="BB5">
+        <v>825</v>
       </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:54">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D6" s="4">
         <v>9643785691</v>
@@ -1615,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>4</v>
@@ -1673,13 +1711,15 @@
         <v>39</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC6" s="4"/>
+        <v>144</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
@@ -1707,54 +1747,69 @@
       <c r="AR6" s="4"/>
       <c r="AS6" s="4"/>
       <c r="AT6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AU6" s="4"/>
       <c r="AY6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ6" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA6">
+        <v>243</v>
+      </c>
+      <c r="BB6">
+        <v>826</v>
       </c>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:54">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="AP7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AR7">
         <v>121050</v>
       </c>
       <c r="AT7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AX7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ7" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA7">
+        <v>244</v>
+      </c>
+      <c r="BB7">
+        <v>827</v>
       </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:54">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
         <v>92</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
       </c>
       <c r="D8" s="4">
         <v>9557106666</v>
@@ -1763,7 +1818,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>4</v>
@@ -1821,14 +1876,14 @@
         <v>39</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
@@ -1861,28 +1916,34 @@
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AU8" s="4"/>
       <c r="AX8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ8" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA8">
+        <v>245</v>
+      </c>
+      <c r="BB8">
+        <v>828</v>
       </c>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:54">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="4">
         <v>9557106666</v>
@@ -1891,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>4</v>
@@ -1956,7 +2017,7 @@
         <v>63</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
@@ -1984,51 +2045,57 @@
         <v>56</v>
       </c>
       <c r="AO9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP9" t="s">
         <v>68</v>
       </c>
-      <c r="AP9" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR9">
         <v>12105096</v>
       </c>
       <c r="AS9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT9" t="s">
         <v>70</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>71</v>
       </c>
       <c r="AU9">
         <v>121212121</v>
       </c>
       <c r="AV9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW9">
         <v>304567</v>
       </c>
       <c r="AX9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ9" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA9">
+        <v>246</v>
+      </c>
+      <c r="BB9">
+        <v>829</v>
       </c>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:54">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="4">
         <v>9557106666</v>
@@ -2037,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>4</v>
@@ -2071,7 +2138,7 @@
         <v>26</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S10" t="s">
         <v>34</v>
@@ -2102,7 +2169,7 @@
         <v>63</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -2130,51 +2197,57 @@
         <v>56</v>
       </c>
       <c r="AO10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP10" t="s">
         <v>68</v>
       </c>
-      <c r="AP10" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR10">
         <v>12105096</v>
       </c>
       <c r="AS10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT10" t="s">
         <v>70</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>71</v>
       </c>
       <c r="AU10">
         <v>121212121</v>
       </c>
       <c r="AV10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW10">
         <v>304567</v>
       </c>
       <c r="AX10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ10" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA10">
+        <v>247</v>
+      </c>
+      <c r="BB10">
+        <v>830</v>
       </c>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:54">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="4">
         <v>9557106666</v>
@@ -2183,7 +2256,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>4</v>
@@ -2217,7 +2290,7 @@
         <v>26</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S11" t="s">
         <v>34</v>
@@ -2248,7 +2321,7 @@
         <v>63</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -2276,51 +2349,57 @@
         <v>56</v>
       </c>
       <c r="AO11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP11" t="s">
         <v>68</v>
       </c>
-      <c r="AP11" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR11">
         <v>12105096</v>
       </c>
       <c r="AS11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT11" t="s">
         <v>70</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>71</v>
       </c>
       <c r="AU11">
         <v>121212121</v>
       </c>
       <c r="AV11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW11">
         <v>304567</v>
       </c>
       <c r="AX11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AY11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ11" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA11">
+        <v>248</v>
+      </c>
+      <c r="BB11">
+        <v>831</v>
       </c>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:54">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="4">
         <v>9557106666</v>
@@ -2329,10 +2408,10 @@
         <v>3</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>12</v>
@@ -2363,7 +2442,7 @@
         <v>26</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S12" t="s">
         <v>34</v>
@@ -2394,7 +2473,7 @@
         <v>63</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -2422,51 +2501,57 @@
         <v>56</v>
       </c>
       <c r="AO12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP12" t="s">
         <v>68</v>
       </c>
-      <c r="AP12" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR12">
         <v>12105096</v>
       </c>
       <c r="AS12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT12" t="s">
         <v>70</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>71</v>
       </c>
       <c r="AU12">
         <v>121212121</v>
       </c>
       <c r="AV12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW12">
         <v>304567</v>
       </c>
       <c r="AX12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ12" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA12">
+        <v>249</v>
+      </c>
+      <c r="BB12">
+        <v>832</v>
       </c>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:54">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="4">
         <v>9557106666</v>
@@ -2475,10 +2560,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>12</v>
@@ -2509,7 +2594,7 @@
         <v>26</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S13" t="s">
         <v>34</v>
@@ -2540,7 +2625,7 @@
         <v>63</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -2568,51 +2653,57 @@
         <v>56</v>
       </c>
       <c r="AO13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP13" t="s">
         <v>68</v>
       </c>
-      <c r="AP13" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR13">
         <v>12105096</v>
       </c>
       <c r="AS13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT13" t="s">
         <v>70</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>71</v>
       </c>
       <c r="AU13">
         <v>121212121</v>
       </c>
       <c r="AV13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW13">
         <v>304567</v>
       </c>
       <c r="AX13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ13" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA13">
+        <v>250</v>
+      </c>
+      <c r="BB13">
+        <v>833</v>
       </c>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:54">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="4">
         <v>9557106666</v>
@@ -2621,10 +2712,10 @@
         <v>3</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>12</v>
@@ -2655,7 +2746,7 @@
         <v>26</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S14" t="s">
         <v>34</v>
@@ -2686,7 +2777,7 @@
         <v>63</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -2714,48 +2805,54 @@
         <v>56</v>
       </c>
       <c r="AO14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP14" t="s">
         <v>68</v>
       </c>
-      <c r="AP14" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR14">
         <v>12105096</v>
       </c>
       <c r="AS14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT14" t="s">
         <v>70</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>71</v>
       </c>
       <c r="AU14">
         <v>121212121</v>
       </c>
       <c r="AV14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW14">
         <v>304567</v>
       </c>
       <c r="AX14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ14" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA14">
+        <v>251</v>
+      </c>
+      <c r="BB14">
+        <v>834</v>
       </c>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:54">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
         <v>57</v>
@@ -2767,13 +2864,13 @@
         <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>13</v>
@@ -2832,7 +2929,7 @@
         <v>63</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -2860,48 +2957,54 @@
         <v>56</v>
       </c>
       <c r="AO15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP15" t="s">
         <v>68</v>
       </c>
-      <c r="AP15" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR15">
         <v>12105096</v>
       </c>
       <c r="AS15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT15" t="s">
         <v>70</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>71</v>
       </c>
       <c r="AU15">
         <v>121212121</v>
       </c>
       <c r="AV15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW15">
         <v>304567</v>
       </c>
       <c r="AX15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ15" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA15">
+        <v>252</v>
+      </c>
+      <c r="BB15">
+        <v>835</v>
       </c>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:54">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
         <v>57</v>
@@ -2913,13 +3016,13 @@
         <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
         <v>4</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>13</v>
@@ -2978,7 +3081,7 @@
         <v>63</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
@@ -3006,48 +3109,54 @@
         <v>56</v>
       </c>
       <c r="AO16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP16" t="s">
         <v>68</v>
       </c>
-      <c r="AP16" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR16">
         <v>12105096</v>
       </c>
       <c r="AS16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT16" t="s">
         <v>70</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>71</v>
       </c>
       <c r="AU16">
         <v>121212121</v>
       </c>
       <c r="AV16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW16">
         <v>304567</v>
       </c>
       <c r="AX16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ16" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA16">
+        <v>253</v>
+      </c>
+      <c r="BB16">
+        <v>836</v>
       </c>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:54">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
         <v>57</v>
@@ -3059,10 +3168,10 @@
         <v>3</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>12</v>
@@ -3093,7 +3202,7 @@
         <v>26</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S17" t="s">
         <v>34</v>
@@ -3124,7 +3233,7 @@
         <v>63</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -3152,48 +3261,54 @@
         <v>56</v>
       </c>
       <c r="AO17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP17" t="s">
         <v>68</v>
       </c>
-      <c r="AP17" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR17">
         <v>12105096</v>
       </c>
       <c r="AS17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT17" t="s">
         <v>70</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>71</v>
       </c>
       <c r="AU17">
         <v>121212121</v>
       </c>
       <c r="AV17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW17">
         <v>304567</v>
       </c>
       <c r="AX17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ17" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA17">
+        <v>254</v>
+      </c>
+      <c r="BB17">
+        <v>837</v>
       </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:54">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
@@ -3205,10 +3320,10 @@
         <v>3</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>12</v>
@@ -3239,7 +3354,7 @@
         <v>26</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S18" t="s">
         <v>34</v>
@@ -3270,7 +3385,7 @@
         <v>63</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -3298,48 +3413,54 @@
         <v>56</v>
       </c>
       <c r="AO18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP18" t="s">
         <v>68</v>
       </c>
-      <c r="AP18" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR18">
         <v>12105096</v>
       </c>
       <c r="AS18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT18" t="s">
         <v>70</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>71</v>
       </c>
       <c r="AU18">
         <v>121212121</v>
       </c>
       <c r="AV18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW18">
         <v>304567</v>
       </c>
       <c r="AX18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ18" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA18">
+        <v>255</v>
+      </c>
+      <c r="BB18">
+        <v>838</v>
       </c>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:54">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
         <v>57</v>
@@ -3351,10 +3472,10 @@
         <v>3</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>12</v>
@@ -3385,7 +3506,7 @@
         <v>26</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S19" t="s">
         <v>34</v>
@@ -3416,7 +3537,7 @@
         <v>63</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -3444,48 +3565,54 @@
         <v>56</v>
       </c>
       <c r="AO19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP19" t="s">
         <v>68</v>
       </c>
-      <c r="AP19" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR19">
         <v>12105096</v>
       </c>
       <c r="AS19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT19" t="s">
         <v>70</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>71</v>
       </c>
       <c r="AU19">
         <v>121212121</v>
       </c>
       <c r="AV19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW19">
         <v>304567</v>
       </c>
       <c r="AX19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AY19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ19" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA19">
+        <v>256</v>
+      </c>
+      <c r="BB19">
+        <v>839</v>
       </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:54">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
@@ -3497,10 +3624,10 @@
         <v>3</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>12</v>
@@ -3531,7 +3658,7 @@
         <v>26</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S20" t="s">
         <v>34</v>
@@ -3562,7 +3689,7 @@
         <v>63</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -3590,48 +3717,54 @@
         <v>56</v>
       </c>
       <c r="AO20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP20" t="s">
         <v>68</v>
       </c>
-      <c r="AP20" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR20">
         <v>12105096</v>
       </c>
       <c r="AS20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT20" t="s">
         <v>70</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>71</v>
       </c>
       <c r="AU20">
         <v>121212121</v>
       </c>
       <c r="AV20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW20">
         <v>304567</v>
       </c>
       <c r="AX20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ20" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA20">
+        <v>257</v>
+      </c>
+      <c r="BB20">
+        <v>840</v>
       </c>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:54">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
         <v>57</v>
@@ -3643,10 +3776,10 @@
         <v>3</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>12</v>
@@ -3677,7 +3810,7 @@
         <v>26</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S21" t="s">
         <v>34</v>
@@ -3708,7 +3841,7 @@
         <v>63</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -3736,48 +3869,54 @@
         <v>56</v>
       </c>
       <c r="AO21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP21" t="s">
         <v>68</v>
       </c>
-      <c r="AP21" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR21">
         <v>12105096</v>
       </c>
       <c r="AS21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT21" t="s">
         <v>70</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>71</v>
       </c>
       <c r="AU21">
         <v>121212121</v>
       </c>
       <c r="AV21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW21">
         <v>304567</v>
       </c>
       <c r="AX21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ21" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA21">
+        <v>258</v>
+      </c>
+      <c r="BB21">
+        <v>841</v>
       </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:54">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
@@ -3789,10 +3928,10 @@
         <v>3</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>12</v>
@@ -3823,7 +3962,7 @@
         <v>26</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S22" t="s">
         <v>34</v>
@@ -3854,7 +3993,7 @@
         <v>63</v>
       </c>
       <c r="AC22" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -3882,51 +4021,57 @@
         <v>56</v>
       </c>
       <c r="AO22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP22" t="s">
         <v>68</v>
       </c>
-      <c r="AP22" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR22">
         <v>12105096</v>
       </c>
       <c r="AS22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT22" t="s">
         <v>70</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>71</v>
       </c>
       <c r="AU22">
         <v>121212121</v>
       </c>
       <c r="AV22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW22">
         <v>304567</v>
       </c>
       <c r="AX22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AY22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ22" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA22">
+        <v>259</v>
+      </c>
+      <c r="BB22">
+        <v>842</v>
       </c>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:54">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D23" s="4">
         <v>9643785691</v>
@@ -3935,13 +4080,13 @@
         <v>3</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
         <v>4</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>13</v>
@@ -4000,7 +4145,7 @@
         <v>63</v>
       </c>
       <c r="AC23" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -4028,51 +4173,57 @@
         <v>56</v>
       </c>
       <c r="AO23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP23" t="s">
         <v>68</v>
       </c>
-      <c r="AP23" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR23">
         <v>12105096</v>
       </c>
       <c r="AS23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT23" t="s">
         <v>70</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>71</v>
       </c>
       <c r="AU23">
         <v>121212121</v>
       </c>
       <c r="AV23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW23">
         <v>304567</v>
       </c>
       <c r="AX23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ23" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA23">
+        <v>260</v>
+      </c>
+      <c r="BB23">
+        <v>843</v>
       </c>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:54">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D24" s="4">
         <v>9643785691</v>
@@ -4081,13 +4232,13 @@
         <v>3</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
         <v>4</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>13</v>
@@ -4146,7 +4297,7 @@
         <v>63</v>
       </c>
       <c r="AC24" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -4174,51 +4325,57 @@
         <v>56</v>
       </c>
       <c r="AO24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP24" t="s">
         <v>68</v>
       </c>
-      <c r="AP24" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR24">
         <v>12105096</v>
       </c>
       <c r="AS24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT24" t="s">
         <v>70</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>71</v>
       </c>
       <c r="AU24">
         <v>121212121</v>
       </c>
       <c r="AV24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW24">
         <v>304567</v>
       </c>
       <c r="AX24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ24" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA24">
+        <v>261</v>
+      </c>
+      <c r="BB24">
+        <v>844</v>
       </c>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:54">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D25" s="4">
         <v>9557106666</v>
@@ -4227,7 +4384,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>4</v>
@@ -4292,7 +4449,7 @@
         <v>63</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -4320,51 +4477,57 @@
         <v>56</v>
       </c>
       <c r="AO25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP25" t="s">
         <v>68</v>
       </c>
-      <c r="AP25" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR25">
         <v>12105096</v>
       </c>
       <c r="AS25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT25" t="s">
         <v>70</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>71</v>
       </c>
       <c r="AU25">
         <v>121212121</v>
       </c>
       <c r="AV25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW25">
         <v>304567</v>
       </c>
       <c r="AX25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ25" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA25">
+        <v>262</v>
+      </c>
+      <c r="BB25">
+        <v>845</v>
       </c>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:54">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D26" s="4">
         <v>9557106666</v>
@@ -4373,7 +4536,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>4</v>
@@ -4407,7 +4570,7 @@
         <v>26</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S26" t="s">
         <v>34</v>
@@ -4438,7 +4601,7 @@
         <v>63</v>
       </c>
       <c r="AC26" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -4466,51 +4629,57 @@
         <v>56</v>
       </c>
       <c r="AO26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP26" t="s">
         <v>68</v>
       </c>
-      <c r="AP26" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR26">
         <v>12105096</v>
       </c>
       <c r="AS26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT26" t="s">
         <v>70</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>71</v>
       </c>
       <c r="AU26">
         <v>121212121</v>
       </c>
       <c r="AV26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW26">
         <v>304567</v>
       </c>
       <c r="AX26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ26" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA26">
+        <v>263</v>
+      </c>
+      <c r="BB26">
+        <v>846</v>
       </c>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:54">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D27" s="4">
         <v>9643785691</v>
@@ -4519,10 +4688,10 @@
         <v>3</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>12</v>
@@ -4553,7 +4722,7 @@
         <v>26</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S27" t="s">
         <v>34</v>
@@ -4584,7 +4753,7 @@
         <v>63</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -4612,51 +4781,57 @@
         <v>56</v>
       </c>
       <c r="AO27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP27" t="s">
         <v>68</v>
       </c>
-      <c r="AP27" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR27">
         <v>12105096</v>
       </c>
       <c r="AS27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT27" t="s">
         <v>70</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>71</v>
       </c>
       <c r="AU27">
         <v>121212121</v>
       </c>
       <c r="AV27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW27">
         <v>304567</v>
       </c>
       <c r="AX27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ27" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA27">
+        <v>264</v>
+      </c>
+      <c r="BB27">
+        <v>847</v>
       </c>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:54">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D28" s="4">
         <v>9643785691</v>
@@ -4665,10 +4840,10 @@
         <v>3</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>12</v>
@@ -4699,7 +4874,7 @@
         <v>26</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S28" t="s">
         <v>34</v>
@@ -4730,7 +4905,7 @@
         <v>63</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -4758,51 +4933,57 @@
         <v>56</v>
       </c>
       <c r="AO28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP28" t="s">
         <v>68</v>
       </c>
-      <c r="AP28" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR28">
         <v>12105096</v>
       </c>
       <c r="AS28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT28" t="s">
         <v>70</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>71</v>
       </c>
       <c r="AU28">
         <v>121212121</v>
       </c>
       <c r="AV28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW28">
         <v>304567</v>
       </c>
       <c r="AX28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ28" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA28">
+        <v>265</v>
+      </c>
+      <c r="BB28">
+        <v>848</v>
       </c>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:54">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D29" s="4">
         <v>9643785691</v>
@@ -4811,10 +4992,10 @@
         <v>3</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>12</v>
@@ -4845,7 +5026,7 @@
         <v>26</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S29" t="s">
         <v>34</v>
@@ -4876,7 +5057,7 @@
         <v>63</v>
       </c>
       <c r="AC29" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -4904,51 +5085,57 @@
         <v>56</v>
       </c>
       <c r="AO29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP29" t="s">
         <v>68</v>
       </c>
-      <c r="AP29" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR29">
         <v>12105096</v>
       </c>
       <c r="AS29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT29" t="s">
         <v>70</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>71</v>
       </c>
       <c r="AU29">
         <v>121212121</v>
       </c>
       <c r="AV29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW29">
         <v>304567</v>
       </c>
       <c r="AX29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ29" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA29">
+        <v>266</v>
+      </c>
+      <c r="BB29">
+        <v>849</v>
       </c>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:54">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D30" s="4">
         <v>9643785691</v>
@@ -4957,10 +5144,10 @@
         <v>3</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>12</v>
@@ -4991,7 +5178,7 @@
         <v>26</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S30" t="s">
         <v>34</v>
@@ -5022,7 +5209,7 @@
         <v>63</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -5050,51 +5237,57 @@
         <v>56</v>
       </c>
       <c r="AO30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP30" t="s">
         <v>68</v>
       </c>
-      <c r="AP30" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR30">
         <v>12105096</v>
       </c>
       <c r="AS30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT30" t="s">
         <v>70</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>71</v>
       </c>
       <c r="AU30">
         <v>121212121</v>
       </c>
       <c r="AV30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW30">
         <v>304567</v>
       </c>
       <c r="AX30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ30" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA30">
+        <v>267</v>
+      </c>
+      <c r="BB30">
+        <v>850</v>
       </c>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:54">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D31" s="7">
         <v>9434188439</v>
@@ -5103,10 +5296,10 @@
         <v>3</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>12</v>
@@ -5137,7 +5330,7 @@
         <v>26</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S31" t="s">
         <v>34</v>
@@ -5168,7 +5361,7 @@
         <v>63</v>
       </c>
       <c r="AC31" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -5196,51 +5389,57 @@
         <v>56</v>
       </c>
       <c r="AO31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP31" t="s">
         <v>68</v>
       </c>
-      <c r="AP31" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR31">
         <v>12105096</v>
       </c>
       <c r="AS31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT31" t="s">
         <v>70</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>71</v>
       </c>
       <c r="AU31">
         <v>121212121</v>
       </c>
       <c r="AV31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW31">
         <v>304567</v>
       </c>
       <c r="AX31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ31" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA31">
+        <v>268</v>
+      </c>
+      <c r="BB31">
+        <v>851</v>
       </c>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:54">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D32" s="7">
         <v>9434188439</v>
@@ -5249,10 +5448,10 @@
         <v>3</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>12</v>
@@ -5283,7 +5482,7 @@
         <v>26</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S32" t="s">
         <v>34</v>
@@ -5314,7 +5513,7 @@
         <v>63</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -5342,51 +5541,57 @@
         <v>56</v>
       </c>
       <c r="AO32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP32" t="s">
         <v>68</v>
       </c>
-      <c r="AP32" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR32">
         <v>12105096</v>
       </c>
       <c r="AS32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT32" t="s">
         <v>70</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>71</v>
       </c>
       <c r="AU32">
         <v>121212121</v>
       </c>
       <c r="AV32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW32">
         <v>304567</v>
       </c>
       <c r="AX32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ32" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA32">
+        <v>269</v>
+      </c>
+      <c r="BB32">
+        <v>852</v>
       </c>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:54">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D33" s="7">
         <v>9434188439</v>
@@ -5395,7 +5600,7 @@
         <v>3</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>4</v>
@@ -5460,7 +5665,7 @@
         <v>63</v>
       </c>
       <c r="AC33" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -5488,51 +5693,57 @@
         <v>56</v>
       </c>
       <c r="AO33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP33" t="s">
         <v>68</v>
       </c>
-      <c r="AP33" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR33">
         <v>12105096</v>
       </c>
       <c r="AS33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT33" t="s">
         <v>70</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>71</v>
       </c>
       <c r="AU33">
         <v>121212121</v>
       </c>
       <c r="AV33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW33">
         <v>304567</v>
       </c>
       <c r="AX33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ33" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA33">
+        <v>270</v>
+      </c>
+      <c r="BB33">
+        <v>853</v>
       </c>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:54">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D34" s="7">
         <v>9434188439</v>
@@ -5541,7 +5752,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>4</v>
@@ -5575,7 +5786,7 @@
         <v>26</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S34" t="s">
         <v>34</v>
@@ -5606,7 +5817,7 @@
         <v>63</v>
       </c>
       <c r="AC34" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -5634,51 +5845,57 @@
         <v>56</v>
       </c>
       <c r="AO34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP34" t="s">
         <v>68</v>
       </c>
-      <c r="AP34" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR34">
         <v>12105096</v>
       </c>
       <c r="AS34" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT34" t="s">
         <v>70</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>71</v>
       </c>
       <c r="AU34">
         <v>121212121</v>
       </c>
       <c r="AV34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW34">
         <v>304567</v>
       </c>
       <c r="AX34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ34" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA34">
+        <v>271</v>
+      </c>
+      <c r="BB34">
+        <v>854</v>
       </c>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:54">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
         <v>127</v>
-      </c>
-      <c r="C35" t="s">
-        <v>129</v>
       </c>
       <c r="D35" s="4">
         <v>7042370511</v>
@@ -5687,10 +5904,10 @@
         <v>3</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>12</v>
@@ -5721,7 +5938,7 @@
         <v>26</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S35" t="s">
         <v>34</v>
@@ -5752,7 +5969,7 @@
         <v>63</v>
       </c>
       <c r="AC35" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -5780,51 +5997,57 @@
         <v>56</v>
       </c>
       <c r="AO35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP35" t="s">
         <v>68</v>
       </c>
-      <c r="AP35" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR35">
         <v>12105096</v>
       </c>
       <c r="AS35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT35" t="s">
         <v>70</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>71</v>
       </c>
       <c r="AU35">
         <v>121212121</v>
       </c>
       <c r="AV35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW35">
         <v>304567</v>
       </c>
       <c r="AX35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ35" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA35">
+        <v>272</v>
+      </c>
+      <c r="BB35">
+        <v>855</v>
       </c>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:54">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D36" s="4">
         <v>7042370511</v>
@@ -5833,10 +6056,10 @@
         <v>3</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>12</v>
@@ -5867,7 +6090,7 @@
         <v>26</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S36" t="s">
         <v>34</v>
@@ -5898,7 +6121,7 @@
         <v>63</v>
       </c>
       <c r="AC36" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -5926,51 +6149,57 @@
         <v>56</v>
       </c>
       <c r="AO36" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP36" t="s">
         <v>68</v>
       </c>
-      <c r="AP36" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR36">
         <v>12105096</v>
       </c>
       <c r="AS36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT36" t="s">
         <v>70</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>71</v>
       </c>
       <c r="AU36">
         <v>121212121</v>
       </c>
       <c r="AV36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW36">
         <v>304567</v>
       </c>
       <c r="AX36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ36" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA36">
+        <v>273</v>
+      </c>
+      <c r="BB36">
+        <v>856</v>
       </c>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:54">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D37" s="4">
         <v>7042370511</v>
@@ -5979,13 +6208,13 @@
         <v>3</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s">
         <v>4</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>13</v>
@@ -6044,7 +6273,7 @@
         <v>63</v>
       </c>
       <c r="AC37" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -6072,51 +6301,57 @@
         <v>56</v>
       </c>
       <c r="AO37" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP37" t="s">
         <v>68</v>
       </c>
-      <c r="AP37" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR37">
         <v>12105096</v>
       </c>
       <c r="AS37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT37" t="s">
         <v>70</v>
-      </c>
-      <c r="AT37" t="s">
-        <v>71</v>
       </c>
       <c r="AU37">
         <v>121212121</v>
       </c>
       <c r="AV37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW37">
         <v>304567</v>
       </c>
       <c r="AX37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ37" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA37">
+        <v>274</v>
+      </c>
+      <c r="BB37">
+        <v>857</v>
       </c>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:54">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D38" s="4">
         <v>7042370511</v>
@@ -6125,13 +6360,13 @@
         <v>3</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s">
         <v>4</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>13</v>
@@ -6190,7 +6425,7 @@
         <v>63</v>
       </c>
       <c r="AC38" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
@@ -6218,106 +6453,157 @@
         <v>56</v>
       </c>
       <c r="AO38" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP38" t="s">
         <v>68</v>
       </c>
-      <c r="AP38" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR38">
         <v>12105096</v>
       </c>
       <c r="AS38" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT38" t="s">
         <v>70</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>71</v>
       </c>
       <c r="AU38">
         <v>121212121</v>
       </c>
       <c r="AV38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW38">
         <v>304567</v>
       </c>
       <c r="AX38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ38" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA38">
+        <v>275</v>
+      </c>
+      <c r="BB38">
+        <v>858</v>
       </c>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:54">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="AC39" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="BA39">
+        <v>276</v>
+      </c>
+      <c r="BB39">
+        <v>859</v>
       </c>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40" spans="1:54">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="AC40" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="BA40">
+        <v>277</v>
+      </c>
+      <c r="BB40">
+        <v>860</v>
       </c>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:54">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="BA41">
+        <v>278</v>
+      </c>
+      <c r="BB41">
+        <v>861</v>
       </c>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42" spans="1:54">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="BA42">
+        <v>279</v>
+      </c>
+      <c r="BB42">
+        <v>862</v>
       </c>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43" spans="1:54">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="BA43">
+        <v>280</v>
+      </c>
+      <c r="BB43">
+        <v>863</v>
       </c>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44" spans="1:54">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D44" s="8">
         <v>8506074541</v>
@@ -6326,7 +6612,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>4</v>
@@ -6391,7 +6677,7 @@
         <v>63</v>
       </c>
       <c r="AC44" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -6419,51 +6705,57 @@
         <v>56</v>
       </c>
       <c r="AO44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP44" t="s">
         <v>68</v>
       </c>
-      <c r="AP44" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR44">
         <v>12105096</v>
       </c>
       <c r="AS44" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT44" t="s">
         <v>70</v>
-      </c>
-      <c r="AT44" t="s">
-        <v>71</v>
       </c>
       <c r="AU44">
         <v>121212121</v>
       </c>
       <c r="AV44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW44">
         <v>304567</v>
       </c>
       <c r="AX44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ44" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA44">
+        <v>281</v>
+      </c>
+      <c r="BB44">
+        <v>864</v>
       </c>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45" spans="1:54">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D45" s="8">
         <v>8506074541</v>
@@ -6472,7 +6764,7 @@
         <v>3</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>4</v>
@@ -6506,7 +6798,7 @@
         <v>26</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S45" t="s">
         <v>34</v>
@@ -6537,7 +6829,7 @@
         <v>63</v>
       </c>
       <c r="AC45" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -6565,51 +6857,57 @@
         <v>56</v>
       </c>
       <c r="AO45" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP45" t="s">
         <v>68</v>
       </c>
-      <c r="AP45" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR45">
         <v>12105096</v>
       </c>
       <c r="AS45" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT45" t="s">
         <v>70</v>
-      </c>
-      <c r="AT45" t="s">
-        <v>71</v>
       </c>
       <c r="AU45">
         <v>121212121</v>
       </c>
       <c r="AV45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW45">
         <v>304567</v>
       </c>
       <c r="AX45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ45" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA45">
+        <v>282</v>
+      </c>
+      <c r="BB45">
+        <v>865</v>
       </c>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:54">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" t="s">
         <v>150</v>
-      </c>
-      <c r="C46" t="s">
-        <v>152</v>
       </c>
       <c r="D46" s="8">
         <v>8506074541</v>
@@ -6618,10 +6916,10 @@
         <v>3</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>12</v>
@@ -6652,7 +6950,7 @@
         <v>26</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S46" t="s">
         <v>34</v>
@@ -6683,7 +6981,7 @@
         <v>63</v>
       </c>
       <c r="AC46" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -6711,51 +7009,57 @@
         <v>56</v>
       </c>
       <c r="AO46" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP46" t="s">
         <v>68</v>
       </c>
-      <c r="AP46" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR46">
         <v>12105096</v>
       </c>
       <c r="AS46" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT46" t="s">
         <v>70</v>
-      </c>
-      <c r="AT46" t="s">
-        <v>71</v>
       </c>
       <c r="AU46">
         <v>121212121</v>
       </c>
       <c r="AV46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW46">
         <v>304567</v>
       </c>
       <c r="AX46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ46" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA46">
+        <v>283</v>
+      </c>
+      <c r="BB46">
+        <v>866</v>
       </c>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:54">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8">
         <v>8506074541</v>
@@ -6764,10 +7068,10 @@
         <v>3</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>12</v>
@@ -6798,7 +7102,7 @@
         <v>26</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S47" t="s">
         <v>34</v>
@@ -6829,7 +7133,7 @@
         <v>63</v>
       </c>
       <c r="AC47" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -6857,51 +7161,57 @@
         <v>56</v>
       </c>
       <c r="AO47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP47" t="s">
         <v>68</v>
       </c>
-      <c r="AP47" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR47">
         <v>12105096</v>
       </c>
       <c r="AS47" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT47" t="s">
         <v>70</v>
-      </c>
-      <c r="AT47" t="s">
-        <v>71</v>
       </c>
       <c r="AU47">
         <v>121212121</v>
       </c>
       <c r="AV47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW47">
         <v>304567</v>
       </c>
       <c r="AX47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ47" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA47">
+        <v>284</v>
+      </c>
+      <c r="BB47">
+        <v>867</v>
       </c>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48" spans="1:54">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D48" s="4">
         <v>9971141630</v>
@@ -6910,13 +7220,13 @@
         <v>3</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s">
         <v>4</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>13</v>
@@ -6975,7 +7285,7 @@
         <v>63</v>
       </c>
       <c r="AC48" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -7003,51 +7313,57 @@
         <v>56</v>
       </c>
       <c r="AO48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP48" t="s">
         <v>68</v>
       </c>
-      <c r="AP48" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR48">
         <v>12105096</v>
       </c>
       <c r="AS48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT48" t="s">
         <v>70</v>
-      </c>
-      <c r="AT48" t="s">
-        <v>71</v>
       </c>
       <c r="AU48">
         <v>121212121</v>
       </c>
       <c r="AV48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW48">
         <v>304567</v>
       </c>
       <c r="AX48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ48" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA48">
+        <v>285</v>
+      </c>
+      <c r="BB48">
+        <v>868</v>
       </c>
     </row>
-    <row r="49" spans="1:52">
+    <row r="49" spans="1:54">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" t="s">
         <v>153</v>
-      </c>
-      <c r="C49" t="s">
-        <v>155</v>
       </c>
       <c r="D49" s="4">
         <v>9971141630</v>
@@ -7056,13 +7372,13 @@
         <v>3</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s">
         <v>4</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>13</v>
@@ -7121,7 +7437,7 @@
         <v>63</v>
       </c>
       <c r="AC49" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -7149,51 +7465,57 @@
         <v>56</v>
       </c>
       <c r="AO49" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP49" t="s">
         <v>68</v>
       </c>
-      <c r="AP49" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR49">
         <v>12105096</v>
       </c>
       <c r="AS49" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT49" t="s">
         <v>70</v>
-      </c>
-      <c r="AT49" t="s">
-        <v>71</v>
       </c>
       <c r="AU49">
         <v>121212121</v>
       </c>
       <c r="AV49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW49">
         <v>304567</v>
       </c>
       <c r="AX49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ49" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA49">
+        <v>286</v>
+      </c>
+      <c r="BB49">
+        <v>869</v>
       </c>
     </row>
-    <row r="50" spans="1:52">
+    <row r="50" spans="1:54">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="4">
         <v>9971141630</v>
@@ -7202,10 +7524,10 @@
         <v>3</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>12</v>
@@ -7236,7 +7558,7 @@
         <v>26</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S50" t="s">
         <v>34</v>
@@ -7267,7 +7589,7 @@
         <v>63</v>
       </c>
       <c r="AC50" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -7295,51 +7617,57 @@
         <v>56</v>
       </c>
       <c r="AO50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP50" t="s">
         <v>68</v>
       </c>
-      <c r="AP50" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR50">
         <v>12105096</v>
       </c>
       <c r="AS50" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT50" t="s">
         <v>70</v>
-      </c>
-      <c r="AT50" t="s">
-        <v>71</v>
       </c>
       <c r="AU50">
         <v>121212121</v>
       </c>
       <c r="AV50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW50">
         <v>304567</v>
       </c>
       <c r="AX50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ50" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA50">
+        <v>287</v>
+      </c>
+      <c r="BB50">
+        <v>870</v>
       </c>
     </row>
-    <row r="51" spans="1:52">
+    <row r="51" spans="1:54">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51">
         <v>9971141630</v>
@@ -7348,10 +7676,10 @@
         <v>3</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>12</v>
@@ -7382,7 +7710,7 @@
         <v>26</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S51" t="s">
         <v>34</v>
@@ -7413,7 +7741,7 @@
         <v>63</v>
       </c>
       <c r="AC51" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -7441,51 +7769,57 @@
         <v>56</v>
       </c>
       <c r="AO51" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP51" t="s">
         <v>68</v>
       </c>
-      <c r="AP51" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR51">
         <v>12105096</v>
       </c>
       <c r="AS51" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT51" t="s">
         <v>70</v>
-      </c>
-      <c r="AT51" t="s">
-        <v>71</v>
       </c>
       <c r="AU51">
         <v>121212121</v>
       </c>
       <c r="AV51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW51">
         <v>304567</v>
       </c>
       <c r="AX51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ51" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA51">
+        <v>288</v>
+      </c>
+      <c r="BB51">
+        <v>871</v>
       </c>
     </row>
-    <row r="52" spans="1:52">
+    <row r="52" spans="1:54">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="8">
         <v>9557106666</v>
@@ -7494,10 +7828,10 @@
         <v>3</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>12</v>
@@ -7528,7 +7862,7 @@
         <v>26</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S52" t="s">
         <v>34</v>
@@ -7559,7 +7893,7 @@
         <v>63</v>
       </c>
       <c r="AC52" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -7587,51 +7921,57 @@
         <v>56</v>
       </c>
       <c r="AO52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP52" t="s">
         <v>68</v>
       </c>
-      <c r="AP52" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR52">
         <v>12105096</v>
       </c>
       <c r="AS52" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT52" t="s">
         <v>70</v>
-      </c>
-      <c r="AT52" t="s">
-        <v>71</v>
       </c>
       <c r="AU52">
         <v>121212121</v>
       </c>
       <c r="AV52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW52">
         <v>304567</v>
       </c>
       <c r="AX52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ52" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA52">
+        <v>289</v>
+      </c>
+      <c r="BB52">
+        <v>872</v>
       </c>
     </row>
-    <row r="53" spans="1:52">
+    <row r="53" spans="1:54">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="8">
         <v>9557106666</v>
@@ -7640,10 +7980,10 @@
         <v>3</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>12</v>
@@ -7674,7 +8014,7 @@
         <v>26</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S53" t="s">
         <v>34</v>
@@ -7705,7 +8045,7 @@
         <v>63</v>
       </c>
       <c r="AC53" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -7733,51 +8073,57 @@
         <v>56</v>
       </c>
       <c r="AO53" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP53" t="s">
         <v>68</v>
       </c>
-      <c r="AP53" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR53">
         <v>12105096</v>
       </c>
       <c r="AS53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT53" t="s">
         <v>70</v>
-      </c>
-      <c r="AT53" t="s">
-        <v>71</v>
       </c>
       <c r="AU53">
         <v>121212121</v>
       </c>
       <c r="AV53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW53">
         <v>304567</v>
       </c>
       <c r="AX53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ53" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA53">
+        <v>290</v>
+      </c>
+      <c r="BB53">
+        <v>873</v>
       </c>
     </row>
-    <row r="54" spans="1:52">
+    <row r="54" spans="1:54">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54" s="8">
         <v>9557106666</v>
@@ -7786,7 +8132,7 @@
         <v>3</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>4</v>
@@ -7851,7 +8197,7 @@
         <v>63</v>
       </c>
       <c r="AC54" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -7879,51 +8225,57 @@
         <v>56</v>
       </c>
       <c r="AO54" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP54" t="s">
         <v>68</v>
       </c>
-      <c r="AP54" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR54">
         <v>12105096</v>
       </c>
       <c r="AS54" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT54" t="s">
         <v>70</v>
-      </c>
-      <c r="AT54" t="s">
-        <v>71</v>
       </c>
       <c r="AU54">
         <v>121212121</v>
       </c>
       <c r="AV54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW54">
         <v>304567</v>
       </c>
       <c r="AX54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ54" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA54">
+        <v>291</v>
+      </c>
+      <c r="BB54">
+        <v>874</v>
       </c>
     </row>
-    <row r="55" spans="1:52">
+    <row r="55" spans="1:54">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55" s="8">
         <v>9557106666</v>
@@ -7932,7 +8284,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>4</v>
@@ -7966,7 +8318,7 @@
         <v>26</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S55" t="s">
         <v>34</v>
@@ -7997,7 +8349,7 @@
         <v>63</v>
       </c>
       <c r="AC55" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -8025,40 +8377,46 @@
         <v>56</v>
       </c>
       <c r="AO55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP55" t="s">
         <v>68</v>
       </c>
-      <c r="AP55" t="s">
-        <v>69</v>
-      </c>
       <c r="AQ55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AR55">
         <v>12105096</v>
       </c>
       <c r="AS55" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT55" t="s">
         <v>70</v>
-      </c>
-      <c r="AT55" t="s">
-        <v>71</v>
       </c>
       <c r="AU55">
         <v>121212121</v>
       </c>
       <c r="AV55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AW55">
         <v>304567</v>
       </c>
       <c r="AX55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AY55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ55" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="BA55">
+        <v>292</v>
+      </c>
+      <c r="BB55">
+        <v>875</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33903272-EB0E-4536-949B-ABACCF2CB19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABB4000-33F9-46AD-BCC2-912583ECCCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="163">
   <si>
     <t>OrderId</t>
   </si>
@@ -116,12 +116,6 @@
     <t>FastTagBank</t>
   </si>
   <si>
-    <t>Individual</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
     <t>PaymentType</t>
   </si>
   <si>
@@ -467,64 +461,70 @@
     <t>HR26AH4038</t>
   </si>
   <si>
+    <t>'28-10-2023</t>
+  </si>
+  <si>
+    <t>BS56,BS57,BS59,BS60,BS61,BS62</t>
+  </si>
+  <si>
+    <t>BS88, BS89, BS91,BS92,BS93,BS94</t>
+  </si>
+  <si>
+    <t>BS90</t>
+  </si>
+  <si>
+    <t>BS95,96,98,99,100,101</t>
+  </si>
+  <si>
+    <t>BS97</t>
+  </si>
+  <si>
+    <t>SOB15000081</t>
+  </si>
+  <si>
+    <t>BS104</t>
+  </si>
+  <si>
+    <t>BS102,103,105,106,107,108</t>
+  </si>
+  <si>
+    <t>SOB15000098</t>
+  </si>
+  <si>
+    <t>BS111</t>
+  </si>
+  <si>
+    <t>BS118</t>
+  </si>
+  <si>
+    <t>BS116,117,119,120,121,122</t>
+  </si>
+  <si>
+    <t>BS123,124,126,127,128,129</t>
+  </si>
+  <si>
+    <t>BS125</t>
+  </si>
+  <si>
+    <t>bs109,110,112,113,114,115</t>
+  </si>
+  <si>
+    <t>AD1</t>
+  </si>
+  <si>
+    <t>AD2</t>
+  </si>
+  <si>
+    <t>31-12-2023</t>
+  </si>
+  <si>
+    <t>Axis Bank</t>
+  </si>
+  <si>
     <t>HR26CE4343</t>
   </si>
   <si>
-    <t>'28-10-2023</t>
-  </si>
-  <si>
-    <t>BS56,BS57,BS59,BS60,BS61,BS62</t>
-  </si>
-  <si>
-    <t>BS88, BS89, BS91,BS92,BS93,BS94</t>
-  </si>
-  <si>
-    <t>BS90</t>
-  </si>
-  <si>
-    <t>BS95,96,98,99,100,101</t>
-  </si>
-  <si>
-    <t>BS97</t>
-  </si>
-  <si>
-    <t>SOB15000081</t>
-  </si>
-  <si>
-    <t>BS104</t>
-  </si>
-  <si>
-    <t>BS102,103,105,106,107,108</t>
-  </si>
-  <si>
-    <t>SOB15000098</t>
-  </si>
-  <si>
-    <t>BS111</t>
-  </si>
-  <si>
-    <t>BS118</t>
-  </si>
-  <si>
-    <t>BS116,117,119,120,121,122</t>
-  </si>
-  <si>
-    <t>BS123,124,126,127,128,129</t>
-  </si>
-  <si>
-    <t>BS125</t>
-  </si>
-  <si>
-    <t>bs109,110,112,113,114,115</t>
-  </si>
-  <si>
-    <t>AD1</t>
-  </si>
-  <si>
-    <t>AD2</t>
-  </si>
-  <si>
-    <t>31-12-2023</t>
+    <t>ExchangeLoyalty</t>
   </si>
 </sst>
 </file>
@@ -920,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
-  <dimension ref="A1:BB55"/>
+  <dimension ref="A1:BC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z2" workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BC1" sqref="BC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -979,9 +979,9 @@
     <col min="52" max="52" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="58">
+    <row r="1" spans="1:55" ht="58">
       <c r="B1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1014,10 +1014,10 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O1" t="s">
         <v>10</v>
@@ -1029,123 +1029,126 @@
         <v>25</v>
       </c>
       <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV1" t="s">
         <v>85</v>
       </c>
-      <c r="X1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>86</v>
       </c>
-      <c r="AV1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>88</v>
-      </c>
       <c r="AX1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AY1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AZ1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="BA1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="BB1" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:55">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2">
         <v>9643785691</v>
@@ -1154,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -1184,13 +1187,13 @@
         <v>123</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T2">
         <v>121111</v>
@@ -1199,40 +1202,40 @@
         <v>13</v>
       </c>
       <c r="V2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W2">
         <v>23</v>
       </c>
       <c r="X2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AJ2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK2">
         <v>5000</v>
       </c>
       <c r="AL2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN2" t="s">
         <v>54</v>
       </c>
-      <c r="AM2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>56</v>
-      </c>
       <c r="AY2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ2" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA2">
         <v>239</v>
@@ -1240,16 +1243,19 @@
       <c r="BB2">
         <v>822</v>
       </c>
+      <c r="BC2">
+        <v>123</v>
+      </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:55">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2">
         <v>9643785691</v>
@@ -1258,7 +1264,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -1291,13 +1297,13 @@
         <v>234</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T3">
         <v>121111</v>
@@ -1306,57 +1312,57 @@
         <v>13</v>
       </c>
       <c r="V3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W3">
         <v>23</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK3">
         <v>5000</v>
       </c>
       <c r="AL3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN3" t="s">
         <v>54</v>
       </c>
-      <c r="AM3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>56</v>
-      </c>
       <c r="AY3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA3">
         <v>240</v>
@@ -1364,16 +1370,19 @@
       <c r="BB3">
         <v>823</v>
       </c>
+      <c r="BC3">
+        <v>124</v>
+      </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:55">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2">
         <v>9643785691</v>
@@ -1382,7 +1391,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
@@ -1415,13 +1424,13 @@
         <v>234</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T4">
         <v>121111</v>
@@ -1430,27 +1439,27 @@
         <v>13</v>
       </c>
       <c r="V4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W4">
         <v>23</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -1458,25 +1467,25 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK4">
         <v>5000</v>
       </c>
       <c r="AL4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN4" t="s">
         <v>54</v>
       </c>
-      <c r="AM4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>56</v>
-      </c>
       <c r="AY4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ4" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA4">
         <v>241</v>
@@ -1484,16 +1493,19 @@
       <c r="BB4">
         <v>824</v>
       </c>
+      <c r="BC4">
+        <v>125</v>
+      </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:55">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2">
         <v>9643785691</v>
@@ -1502,7 +1514,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
@@ -1532,13 +1544,13 @@
         <v>123</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T5">
         <v>121111</v>
@@ -1547,87 +1559,87 @@
         <v>13</v>
       </c>
       <c r="V5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W5">
         <v>23</v>
       </c>
       <c r="X5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK5">
         <v>5000</v>
       </c>
       <c r="AL5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN5" t="s">
         <v>54</v>
       </c>
-      <c r="AM5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>56</v>
-      </c>
       <c r="AO5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR5">
         <v>12105096</v>
       </c>
       <c r="AS5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU5">
         <v>121212121</v>
       </c>
       <c r="AV5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW5">
         <v>304567</v>
       </c>
       <c r="AX5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ5" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA5">
         <v>242</v>
@@ -1635,16 +1647,19 @@
       <c r="BB5">
         <v>825</v>
       </c>
+      <c r="BC5">
+        <v>126</v>
+      </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:55">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="4">
         <v>9643785691</v>
@@ -1653,7 +1668,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>4</v>
@@ -1683,14 +1698,14 @@
       <c r="P6" s="4">
         <v>123</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>26</v>
+      <c r="Q6" t="s">
+        <v>160</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T6" s="4">
         <v>121111</v>
@@ -1699,26 +1714,26 @@
         <v>13</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W6">
         <v>23</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
@@ -1727,19 +1742,19 @@
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK6" s="4">
         <v>5000</v>
       </c>
       <c r="AL6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN6" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="AO6" s="10"/>
       <c r="AP6" s="10"/>
@@ -1747,14 +1762,14 @@
       <c r="AR6" s="4"/>
       <c r="AS6" s="4"/>
       <c r="AT6" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU6" s="4"/>
       <c r="AY6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ6" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA6">
         <v>243</v>
@@ -1762,37 +1777,43 @@
       <c r="BB6">
         <v>826</v>
       </c>
+      <c r="BC6">
+        <v>127</v>
+      </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:55">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>160</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AP7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AR7">
         <v>121050</v>
       </c>
       <c r="AT7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AX7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA7">
         <v>244</v>
@@ -1800,16 +1821,19 @@
       <c r="BB7">
         <v>827</v>
       </c>
+      <c r="BC7">
+        <v>128</v>
+      </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:55">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4">
         <v>9557106666</v>
@@ -1818,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>4</v>
@@ -1848,14 +1872,14 @@
       <c r="P8" s="4">
         <v>123</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>26</v>
+      <c r="Q8" t="s">
+        <v>160</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T8" s="4">
         <v>121111</v>
@@ -1864,51 +1888,51 @@
         <v>13</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W8">
         <v>23</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK8" s="4">
         <v>5000</v>
       </c>
       <c r="AL8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN8" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="AM8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN8" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="AO8" s="10"/>
       <c r="AP8" s="10"/>
@@ -1916,17 +1940,17 @@
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU8" s="4"/>
       <c r="AX8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ8" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA8">
         <v>245</v>
@@ -1934,16 +1958,19 @@
       <c r="BB8">
         <v>828</v>
       </c>
+      <c r="BC8">
+        <v>129</v>
+      </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:55">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="4">
         <v>9557106666</v>
@@ -1952,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>4</v>
@@ -1983,13 +2010,13 @@
         <v>123</v>
       </c>
       <c r="Q9" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T9">
         <v>121111</v>
@@ -1998,87 +2025,87 @@
         <v>13</v>
       </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W9">
         <v>23</v>
       </c>
       <c r="X9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA9" s="1"/>
       <c r="AB9" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK9">
         <v>5000</v>
       </c>
       <c r="AL9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN9" t="s">
         <v>54</v>
       </c>
-      <c r="AM9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>56</v>
-      </c>
       <c r="AO9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR9">
         <v>12105096</v>
       </c>
       <c r="AS9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU9">
         <v>121212121</v>
       </c>
       <c r="AV9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW9">
         <v>304567</v>
       </c>
       <c r="AX9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ9" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA9">
         <v>246</v>
@@ -2086,16 +2113,19 @@
       <c r="BB9">
         <v>829</v>
       </c>
+      <c r="BC9">
+        <v>130</v>
+      </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:55">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="4">
         <v>9557106666</v>
@@ -2104,7 +2134,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>4</v>
@@ -2135,13 +2165,13 @@
         <v>123</v>
       </c>
       <c r="Q10" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T10">
         <v>121111</v>
@@ -2150,87 +2180,87 @@
         <v>13</v>
       </c>
       <c r="V10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W10">
         <v>23</v>
       </c>
       <c r="X10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK10">
         <v>5000</v>
       </c>
       <c r="AL10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN10" t="s">
         <v>54</v>
       </c>
-      <c r="AM10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>56</v>
-      </c>
       <c r="AO10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR10">
         <v>12105096</v>
       </c>
       <c r="AS10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU10">
         <v>121212121</v>
       </c>
       <c r="AV10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW10">
         <v>304567</v>
       </c>
       <c r="AX10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ10" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA10">
         <v>247</v>
@@ -2238,16 +2268,19 @@
       <c r="BB10">
         <v>830</v>
       </c>
+      <c r="BC10">
+        <v>131</v>
+      </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:55">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4">
         <v>9557106666</v>
@@ -2256,7 +2289,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>4</v>
@@ -2287,13 +2320,13 @@
         <v>123</v>
       </c>
       <c r="Q11" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T11">
         <v>121111</v>
@@ -2302,87 +2335,87 @@
         <v>13</v>
       </c>
       <c r="V11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W11">
         <v>23</v>
       </c>
       <c r="X11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK11">
         <v>5000</v>
       </c>
       <c r="AL11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN11" t="s">
         <v>54</v>
       </c>
-      <c r="AM11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>56</v>
-      </c>
       <c r="AO11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR11">
         <v>12105096</v>
       </c>
       <c r="AS11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU11">
         <v>121212121</v>
       </c>
       <c r="AV11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW11">
         <v>304567</v>
       </c>
       <c r="AX11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ11" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA11">
         <v>248</v>
@@ -2390,16 +2423,19 @@
       <c r="BB11">
         <v>831</v>
       </c>
+      <c r="BC11">
+        <v>132</v>
+      </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:55">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="4">
         <v>9557106666</v>
@@ -2408,10 +2444,10 @@
         <v>3</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>12</v>
@@ -2439,13 +2475,13 @@
         <v>123</v>
       </c>
       <c r="Q12" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T12">
         <v>121111</v>
@@ -2454,87 +2490,87 @@
         <v>13</v>
       </c>
       <c r="V12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W12">
         <v>23</v>
       </c>
       <c r="X12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK12">
         <v>5000</v>
       </c>
       <c r="AL12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN12" t="s">
         <v>54</v>
       </c>
-      <c r="AM12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>56</v>
-      </c>
       <c r="AO12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR12">
         <v>12105096</v>
       </c>
       <c r="AS12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU12">
         <v>121212121</v>
       </c>
       <c r="AV12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW12">
         <v>304567</v>
       </c>
       <c r="AX12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ12" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA12">
         <v>249</v>
@@ -2542,16 +2578,19 @@
       <c r="BB12">
         <v>832</v>
       </c>
+      <c r="BC12">
+        <v>133</v>
+      </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:55">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" s="4">
         <v>9557106666</v>
@@ -2560,10 +2599,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>12</v>
@@ -2591,13 +2630,13 @@
         <v>123</v>
       </c>
       <c r="Q13" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T13">
         <v>121111</v>
@@ -2606,87 +2645,87 @@
         <v>13</v>
       </c>
       <c r="V13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W13">
         <v>23</v>
       </c>
       <c r="X13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK13">
         <v>5000</v>
       </c>
       <c r="AL13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN13" t="s">
         <v>54</v>
       </c>
-      <c r="AM13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>56</v>
-      </c>
       <c r="AO13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR13">
         <v>12105096</v>
       </c>
       <c r="AS13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU13">
         <v>121212121</v>
       </c>
       <c r="AV13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW13">
         <v>304567</v>
       </c>
       <c r="AX13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ13" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA13">
         <v>250</v>
@@ -2694,16 +2733,19 @@
       <c r="BB13">
         <v>833</v>
       </c>
+      <c r="BC13">
+        <v>134</v>
+      </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:55">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4">
         <v>9557106666</v>
@@ -2712,10 +2754,10 @@
         <v>3</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>12</v>
@@ -2743,13 +2785,13 @@
         <v>123</v>
       </c>
       <c r="Q14" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T14">
         <v>12222</v>
@@ -2758,87 +2800,87 @@
         <v>13</v>
       </c>
       <c r="V14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W14">
         <v>23</v>
       </c>
       <c r="X14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK14">
         <v>5000</v>
       </c>
       <c r="AL14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN14" t="s">
         <v>54</v>
       </c>
-      <c r="AM14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>56</v>
-      </c>
       <c r="AO14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR14">
         <v>12105096</v>
       </c>
       <c r="AS14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU14">
         <v>121212121</v>
       </c>
       <c r="AV14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW14">
         <v>304567</v>
       </c>
       <c r="AX14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ14" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA14">
         <v>251</v>
@@ -2846,16 +2888,19 @@
       <c r="BB14">
         <v>834</v>
       </c>
+      <c r="BC14">
+        <v>135</v>
+      </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:55">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="4">
         <v>9643785691</v>
@@ -2864,13 +2909,13 @@
         <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>13</v>
@@ -2895,13 +2940,13 @@
         <v>123</v>
       </c>
       <c r="Q15" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T15">
         <v>12222</v>
@@ -2910,87 +2955,87 @@
         <v>13</v>
       </c>
       <c r="V15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W15">
         <v>43</v>
       </c>
       <c r="X15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK15">
         <v>5000</v>
       </c>
       <c r="AL15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN15" t="s">
         <v>54</v>
       </c>
-      <c r="AM15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>56</v>
-      </c>
       <c r="AO15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR15">
         <v>12105096</v>
       </c>
       <c r="AS15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU15">
         <v>121212121</v>
       </c>
       <c r="AV15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW15">
         <v>304567</v>
       </c>
       <c r="AX15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ15" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA15">
         <v>252</v>
@@ -2998,16 +3043,19 @@
       <c r="BB15">
         <v>835</v>
       </c>
+      <c r="BC15">
+        <v>136</v>
+      </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:55">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="4">
         <v>9643785691</v>
@@ -3016,13 +3064,13 @@
         <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
         <v>4</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>13</v>
@@ -3047,13 +3095,13 @@
         <v>123</v>
       </c>
       <c r="Q16" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T16">
         <v>12222</v>
@@ -3062,87 +3110,87 @@
         <v>13</v>
       </c>
       <c r="V16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W16">
         <v>43</v>
       </c>
       <c r="X16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK16">
         <v>5000</v>
       </c>
       <c r="AL16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN16" t="s">
         <v>54</v>
       </c>
-      <c r="AM16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>56</v>
-      </c>
       <c r="AO16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR16">
         <v>12105096</v>
       </c>
       <c r="AS16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU16">
         <v>121212121</v>
       </c>
       <c r="AV16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW16">
         <v>304567</v>
       </c>
       <c r="AX16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ16" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA16">
         <v>253</v>
@@ -3150,16 +3198,19 @@
       <c r="BB16">
         <v>836</v>
       </c>
+      <c r="BC16">
+        <v>137</v>
+      </c>
     </row>
-    <row r="17" spans="1:54">
+    <row r="17" spans="1:55">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="4">
         <v>9643785691</v>
@@ -3168,10 +3219,10 @@
         <v>3</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>12</v>
@@ -3199,13 +3250,13 @@
         <v>123</v>
       </c>
       <c r="Q17" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T17">
         <v>121111</v>
@@ -3214,87 +3265,87 @@
         <v>13</v>
       </c>
       <c r="V17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W17">
         <v>23</v>
       </c>
       <c r="X17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA17" s="1"/>
       <c r="AB17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK17">
         <v>5000</v>
       </c>
       <c r="AL17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN17" t="s">
         <v>54</v>
       </c>
-      <c r="AM17" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>56</v>
-      </c>
       <c r="AO17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR17">
         <v>12105096</v>
       </c>
       <c r="AS17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU17">
         <v>121212121</v>
       </c>
       <c r="AV17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW17">
         <v>304567</v>
       </c>
       <c r="AX17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ17" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA17">
         <v>254</v>
@@ -3302,16 +3353,19 @@
       <c r="BB17">
         <v>837</v>
       </c>
+      <c r="BC17">
+        <v>138</v>
+      </c>
     </row>
-    <row r="18" spans="1:54">
+    <row r="18" spans="1:55">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="4">
         <v>9643785691</v>
@@ -3320,10 +3374,10 @@
         <v>3</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>12</v>
@@ -3351,13 +3405,13 @@
         <v>123</v>
       </c>
       <c r="Q18" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T18">
         <v>121111</v>
@@ -3366,87 +3420,87 @@
         <v>13</v>
       </c>
       <c r="V18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W18">
         <v>23</v>
       </c>
       <c r="X18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK18">
         <v>5000</v>
       </c>
       <c r="AL18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN18" t="s">
         <v>54</v>
       </c>
-      <c r="AM18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>56</v>
-      </c>
       <c r="AO18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR18">
         <v>12105096</v>
       </c>
       <c r="AS18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU18">
         <v>121212121</v>
       </c>
       <c r="AV18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW18">
         <v>304567</v>
       </c>
       <c r="AX18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ18" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA18">
         <v>255</v>
@@ -3454,16 +3508,19 @@
       <c r="BB18">
         <v>838</v>
       </c>
+      <c r="BC18">
+        <v>139</v>
+      </c>
     </row>
-    <row r="19" spans="1:54">
+    <row r="19" spans="1:55">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4">
         <v>9643785691</v>
@@ -3472,10 +3529,10 @@
         <v>3</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>12</v>
@@ -3503,13 +3560,13 @@
         <v>123</v>
       </c>
       <c r="Q19" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T19">
         <v>121111</v>
@@ -3518,87 +3575,87 @@
         <v>13</v>
       </c>
       <c r="V19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W19">
         <v>23</v>
       </c>
       <c r="X19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK19">
         <v>5000</v>
       </c>
       <c r="AL19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN19" t="s">
         <v>54</v>
       </c>
-      <c r="AM19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>56</v>
-      </c>
       <c r="AO19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR19">
         <v>12105096</v>
       </c>
       <c r="AS19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU19">
         <v>121212121</v>
       </c>
       <c r="AV19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW19">
         <v>304567</v>
       </c>
       <c r="AX19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ19" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA19">
         <v>256</v>
@@ -3606,16 +3663,19 @@
       <c r="BB19">
         <v>839</v>
       </c>
+      <c r="BC19">
+        <v>140</v>
+      </c>
     </row>
-    <row r="20" spans="1:54">
+    <row r="20" spans="1:55">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="4">
         <v>9643785691</v>
@@ -3624,10 +3684,10 @@
         <v>3</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>12</v>
@@ -3655,13 +3715,13 @@
         <v>123</v>
       </c>
       <c r="Q20" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T20">
         <v>121111</v>
@@ -3670,87 +3730,87 @@
         <v>13</v>
       </c>
       <c r="V20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W20">
         <v>23</v>
       </c>
       <c r="X20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK20">
         <v>5000</v>
       </c>
       <c r="AL20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN20" t="s">
         <v>54</v>
       </c>
-      <c r="AM20" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>56</v>
-      </c>
       <c r="AO20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR20">
         <v>12105096</v>
       </c>
       <c r="AS20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU20">
         <v>121212121</v>
       </c>
       <c r="AV20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW20">
         <v>304567</v>
       </c>
       <c r="AX20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ20" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA20">
         <v>257</v>
@@ -3758,16 +3818,19 @@
       <c r="BB20">
         <v>840</v>
       </c>
+      <c r="BC20">
+        <v>141</v>
+      </c>
     </row>
-    <row r="21" spans="1:54">
+    <row r="21" spans="1:55">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="4">
         <v>9643785691</v>
@@ -3776,10 +3839,10 @@
         <v>3</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>12</v>
@@ -3807,13 +3870,13 @@
         <v>123</v>
       </c>
       <c r="Q21" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T21">
         <v>121111</v>
@@ -3822,87 +3885,87 @@
         <v>13</v>
       </c>
       <c r="V21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W21">
         <v>23</v>
       </c>
       <c r="X21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA21" s="1"/>
       <c r="AB21" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK21">
         <v>5000</v>
       </c>
       <c r="AL21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN21" t="s">
         <v>54</v>
       </c>
-      <c r="AM21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>56</v>
-      </c>
       <c r="AO21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR21">
         <v>12105096</v>
       </c>
       <c r="AS21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU21">
         <v>121212121</v>
       </c>
       <c r="AV21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW21">
         <v>304567</v>
       </c>
       <c r="AX21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ21" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA21">
         <v>258</v>
@@ -3910,16 +3973,19 @@
       <c r="BB21">
         <v>841</v>
       </c>
+      <c r="BC21">
+        <v>142</v>
+      </c>
     </row>
-    <row r="22" spans="1:54">
+    <row r="22" spans="1:55">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22" s="4">
         <v>9643785691</v>
@@ -3928,10 +3994,10 @@
         <v>3</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>12</v>
@@ -3959,13 +4025,13 @@
         <v>123</v>
       </c>
       <c r="Q22" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T22">
         <v>121111</v>
@@ -3974,87 +4040,87 @@
         <v>13</v>
       </c>
       <c r="V22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W22">
         <v>23</v>
       </c>
       <c r="X22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC22" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK22">
         <v>5000</v>
       </c>
       <c r="AL22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN22" t="s">
         <v>54</v>
       </c>
-      <c r="AM22" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>56</v>
-      </c>
       <c r="AO22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR22">
         <v>12105096</v>
       </c>
       <c r="AS22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU22">
         <v>121212121</v>
       </c>
       <c r="AV22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW22">
         <v>304567</v>
       </c>
       <c r="AX22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AY22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ22" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA22">
         <v>259</v>
@@ -4062,16 +4128,19 @@
       <c r="BB22">
         <v>842</v>
       </c>
+      <c r="BC22">
+        <v>143</v>
+      </c>
     </row>
-    <row r="23" spans="1:54">
+    <row r="23" spans="1:55">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D23" s="4">
         <v>9643785691</v>
@@ -4080,13 +4149,13 @@
         <v>3</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
         <v>4</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>13</v>
@@ -4111,13 +4180,13 @@
         <v>123</v>
       </c>
       <c r="Q23" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T23">
         <v>12222</v>
@@ -4126,87 +4195,87 @@
         <v>13</v>
       </c>
       <c r="V23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W23">
         <v>43</v>
       </c>
       <c r="X23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC23" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK23">
         <v>5000</v>
       </c>
       <c r="AL23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN23" t="s">
         <v>54</v>
       </c>
-      <c r="AM23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>56</v>
-      </c>
       <c r="AO23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR23">
         <v>12105096</v>
       </c>
       <c r="AS23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU23">
         <v>121212121</v>
       </c>
       <c r="AV23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW23">
         <v>304567</v>
       </c>
       <c r="AX23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ23" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA23">
         <v>260</v>
@@ -4214,16 +4283,19 @@
       <c r="BB23">
         <v>843</v>
       </c>
+      <c r="BC23">
+        <v>144</v>
+      </c>
     </row>
-    <row r="24" spans="1:54">
+    <row r="24" spans="1:55">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D24" s="4">
         <v>9643785691</v>
@@ -4232,13 +4304,13 @@
         <v>3</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s">
         <v>4</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>13</v>
@@ -4263,13 +4335,13 @@
         <v>123</v>
       </c>
       <c r="Q24" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T24">
         <v>12222</v>
@@ -4278,87 +4350,87 @@
         <v>13</v>
       </c>
       <c r="V24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W24">
         <v>43</v>
       </c>
       <c r="X24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA24" s="1"/>
       <c r="AB24" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC24" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK24">
         <v>5000</v>
       </c>
       <c r="AL24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN24" t="s">
         <v>54</v>
       </c>
-      <c r="AM24" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>56</v>
-      </c>
       <c r="AO24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR24">
         <v>12105096</v>
       </c>
       <c r="AS24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU24">
         <v>121212121</v>
       </c>
       <c r="AV24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW24">
         <v>304567</v>
       </c>
       <c r="AX24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ24" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA24">
         <v>261</v>
@@ -4366,16 +4438,19 @@
       <c r="BB24">
         <v>844</v>
       </c>
+      <c r="BC24">
+        <v>145</v>
+      </c>
     </row>
-    <row r="25" spans="1:54">
+    <row r="25" spans="1:55">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D25" s="4">
         <v>9557106666</v>
@@ -4384,7 +4459,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>4</v>
@@ -4415,13 +4490,13 @@
         <v>123</v>
       </c>
       <c r="Q25" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T25">
         <v>121111</v>
@@ -4430,87 +4505,87 @@
         <v>13</v>
       </c>
       <c r="V25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W25">
         <v>23</v>
       </c>
       <c r="X25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK25">
         <v>5000</v>
       </c>
       <c r="AL25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN25" t="s">
         <v>54</v>
       </c>
-      <c r="AM25" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>56</v>
-      </c>
       <c r="AO25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR25">
         <v>12105096</v>
       </c>
       <c r="AS25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU25">
         <v>121212121</v>
       </c>
       <c r="AV25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW25">
         <v>304567</v>
       </c>
       <c r="AX25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ25" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA25">
         <v>262</v>
@@ -4518,16 +4593,19 @@
       <c r="BB25">
         <v>845</v>
       </c>
+      <c r="BC25">
+        <v>146</v>
+      </c>
     </row>
-    <row r="26" spans="1:54">
+    <row r="26" spans="1:55">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D26" s="4">
         <v>9557106666</v>
@@ -4536,7 +4614,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>4</v>
@@ -4567,13 +4645,13 @@
         <v>123</v>
       </c>
       <c r="Q26" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T26">
         <v>121111</v>
@@ -4582,87 +4660,87 @@
         <v>13</v>
       </c>
       <c r="V26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W26">
         <v>23</v>
       </c>
       <c r="X26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC26" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK26">
         <v>5000</v>
       </c>
       <c r="AL26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN26" t="s">
         <v>54</v>
       </c>
-      <c r="AM26" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>56</v>
-      </c>
       <c r="AO26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR26">
         <v>12105096</v>
       </c>
       <c r="AS26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU26">
         <v>121212121</v>
       </c>
       <c r="AV26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW26">
         <v>304567</v>
       </c>
       <c r="AX26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ26" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA26">
         <v>263</v>
@@ -4670,16 +4748,19 @@
       <c r="BB26">
         <v>846</v>
       </c>
+      <c r="BC26">
+        <v>147</v>
+      </c>
     </row>
-    <row r="27" spans="1:54">
+    <row r="27" spans="1:55">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D27" s="4">
         <v>9643785691</v>
@@ -4688,10 +4769,10 @@
         <v>3</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>12</v>
@@ -4719,13 +4800,13 @@
         <v>123</v>
       </c>
       <c r="Q27" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T27">
         <v>121111</v>
@@ -4734,87 +4815,87 @@
         <v>13</v>
       </c>
       <c r="V27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W27">
         <v>23</v>
       </c>
       <c r="X27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA27" s="1"/>
       <c r="AB27" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK27">
         <v>5000</v>
       </c>
       <c r="AL27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN27" t="s">
         <v>54</v>
       </c>
-      <c r="AM27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>56</v>
-      </c>
       <c r="AO27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR27">
         <v>12105096</v>
       </c>
       <c r="AS27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU27">
         <v>121212121</v>
       </c>
       <c r="AV27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW27">
         <v>304567</v>
       </c>
       <c r="AX27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ27" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA27">
         <v>264</v>
@@ -4822,16 +4903,19 @@
       <c r="BB27">
         <v>847</v>
       </c>
+      <c r="BC27">
+        <v>148</v>
+      </c>
     </row>
-    <row r="28" spans="1:54">
+    <row r="28" spans="1:55">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D28" s="4">
         <v>9643785691</v>
@@ -4840,10 +4924,10 @@
         <v>3</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>12</v>
@@ -4871,13 +4955,13 @@
         <v>123</v>
       </c>
       <c r="Q28" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T28">
         <v>121111</v>
@@ -4886,87 +4970,87 @@
         <v>13</v>
       </c>
       <c r="V28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W28">
         <v>23</v>
       </c>
       <c r="X28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK28">
         <v>5000</v>
       </c>
       <c r="AL28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN28" t="s">
         <v>54</v>
       </c>
-      <c r="AM28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>56</v>
-      </c>
       <c r="AO28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR28">
         <v>12105096</v>
       </c>
       <c r="AS28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU28">
         <v>121212121</v>
       </c>
       <c r="AV28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW28">
         <v>304567</v>
       </c>
       <c r="AX28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ28" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA28">
         <v>265</v>
@@ -4974,16 +5058,19 @@
       <c r="BB28">
         <v>848</v>
       </c>
+      <c r="BC28">
+        <v>149</v>
+      </c>
     </row>
-    <row r="29" spans="1:54">
+    <row r="29" spans="1:55">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D29" s="4">
         <v>9643785691</v>
@@ -4992,10 +5079,10 @@
         <v>3</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>12</v>
@@ -5023,13 +5110,13 @@
         <v>123</v>
       </c>
       <c r="Q29" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T29">
         <v>121111</v>
@@ -5038,87 +5125,87 @@
         <v>13</v>
       </c>
       <c r="V29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W29">
         <v>23</v>
       </c>
       <c r="X29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC29" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK29">
         <v>5000</v>
       </c>
       <c r="AL29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN29" t="s">
         <v>54</v>
       </c>
-      <c r="AM29" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>56</v>
-      </c>
       <c r="AO29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR29">
         <v>12105096</v>
       </c>
       <c r="AS29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU29">
         <v>121212121</v>
       </c>
       <c r="AV29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW29">
         <v>304567</v>
       </c>
       <c r="AX29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ29" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA29">
         <v>266</v>
@@ -5126,16 +5213,19 @@
       <c r="BB29">
         <v>849</v>
       </c>
+      <c r="BC29">
+        <v>150</v>
+      </c>
     </row>
-    <row r="30" spans="1:54">
+    <row r="30" spans="1:55">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D30" s="4">
         <v>9643785691</v>
@@ -5144,10 +5234,10 @@
         <v>3</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>12</v>
@@ -5175,13 +5265,13 @@
         <v>123</v>
       </c>
       <c r="Q30" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T30">
         <v>121111</v>
@@ -5190,87 +5280,87 @@
         <v>13</v>
       </c>
       <c r="V30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W30">
         <v>23</v>
       </c>
       <c r="X30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA30" s="1"/>
       <c r="AB30" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK30">
         <v>5000</v>
       </c>
       <c r="AL30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN30" t="s">
         <v>54</v>
       </c>
-      <c r="AM30" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>56</v>
-      </c>
       <c r="AO30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR30">
         <v>12105096</v>
       </c>
       <c r="AS30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU30">
         <v>121212121</v>
       </c>
       <c r="AV30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW30">
         <v>304567</v>
       </c>
       <c r="AX30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ30" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA30">
         <v>267</v>
@@ -5278,16 +5368,19 @@
       <c r="BB30">
         <v>850</v>
       </c>
+      <c r="BC30">
+        <v>151</v>
+      </c>
     </row>
-    <row r="31" spans="1:54">
+    <row r="31" spans="1:55">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D31" s="7">
         <v>9434188439</v>
@@ -5296,10 +5389,10 @@
         <v>3</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>12</v>
@@ -5327,13 +5420,13 @@
         <v>123</v>
       </c>
       <c r="Q31" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T31">
         <v>121111</v>
@@ -5342,87 +5435,87 @@
         <v>13</v>
       </c>
       <c r="V31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W31">
         <v>23</v>
       </c>
       <c r="X31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA31" s="1"/>
       <c r="AB31" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC31" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK31">
         <v>5000</v>
       </c>
       <c r="AL31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN31" t="s">
         <v>54</v>
       </c>
-      <c r="AM31" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>56</v>
-      </c>
       <c r="AO31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR31">
         <v>12105096</v>
       </c>
       <c r="AS31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU31">
         <v>121212121</v>
       </c>
       <c r="AV31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW31">
         <v>304567</v>
       </c>
       <c r="AX31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ31" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA31">
         <v>268</v>
@@ -5430,16 +5523,19 @@
       <c r="BB31">
         <v>851</v>
       </c>
+      <c r="BC31">
+        <v>152</v>
+      </c>
     </row>
-    <row r="32" spans="1:54">
+    <row r="32" spans="1:55">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D32" s="7">
         <v>9434188439</v>
@@ -5448,10 +5544,10 @@
         <v>3</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>12</v>
@@ -5479,13 +5575,13 @@
         <v>123</v>
       </c>
       <c r="Q32" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T32">
         <v>121111</v>
@@ -5494,87 +5590,87 @@
         <v>13</v>
       </c>
       <c r="V32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W32">
         <v>23</v>
       </c>
       <c r="X32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA32" s="1"/>
       <c r="AB32" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK32">
         <v>5000</v>
       </c>
       <c r="AL32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN32" t="s">
         <v>54</v>
       </c>
-      <c r="AM32" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>56</v>
-      </c>
       <c r="AO32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR32">
         <v>12105096</v>
       </c>
       <c r="AS32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU32">
         <v>121212121</v>
       </c>
       <c r="AV32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW32">
         <v>304567</v>
       </c>
       <c r="AX32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ32" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA32">
         <v>269</v>
@@ -5582,16 +5678,19 @@
       <c r="BB32">
         <v>852</v>
       </c>
+      <c r="BC32">
+        <v>153</v>
+      </c>
     </row>
-    <row r="33" spans="1:54">
+    <row r="33" spans="1:55">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D33" s="7">
         <v>9434188439</v>
@@ -5600,7 +5699,7 @@
         <v>3</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>4</v>
@@ -5631,13 +5730,13 @@
         <v>123</v>
       </c>
       <c r="Q33" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T33">
         <v>121111</v>
@@ -5646,87 +5745,87 @@
         <v>13</v>
       </c>
       <c r="V33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W33">
         <v>23</v>
       </c>
       <c r="X33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA33" s="1"/>
       <c r="AB33" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC33" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK33">
         <v>5000</v>
       </c>
       <c r="AL33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN33" t="s">
         <v>54</v>
       </c>
-      <c r="AM33" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>56</v>
-      </c>
       <c r="AO33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR33">
         <v>12105096</v>
       </c>
       <c r="AS33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU33">
         <v>121212121</v>
       </c>
       <c r="AV33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW33">
         <v>304567</v>
       </c>
       <c r="AX33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ33" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA33">
         <v>270</v>
@@ -5734,16 +5833,19 @@
       <c r="BB33">
         <v>853</v>
       </c>
+      <c r="BC33">
+        <v>154</v>
+      </c>
     </row>
-    <row r="34" spans="1:54">
+    <row r="34" spans="1:55">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D34" s="7">
         <v>9434188439</v>
@@ -5752,7 +5854,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>4</v>
@@ -5783,13 +5885,13 @@
         <v>123</v>
       </c>
       <c r="Q34" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T34">
         <v>121111</v>
@@ -5798,87 +5900,87 @@
         <v>13</v>
       </c>
       <c r="V34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W34">
         <v>23</v>
       </c>
       <c r="X34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA34" s="1"/>
       <c r="AB34" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC34" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK34">
         <v>5000</v>
       </c>
       <c r="AL34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN34" t="s">
         <v>54</v>
       </c>
-      <c r="AM34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>56</v>
-      </c>
       <c r="AO34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR34">
         <v>12105096</v>
       </c>
       <c r="AS34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU34">
         <v>121212121</v>
       </c>
       <c r="AV34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW34">
         <v>304567</v>
       </c>
       <c r="AX34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ34" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA34">
         <v>271</v>
@@ -5886,16 +5988,19 @@
       <c r="BB34">
         <v>854</v>
       </c>
+      <c r="BC34">
+        <v>155</v>
+      </c>
     </row>
-    <row r="35" spans="1:54">
+    <row r="35" spans="1:55">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" t="s">
         <v>125</v>
-      </c>
-      <c r="C35" t="s">
-        <v>127</v>
       </c>
       <c r="D35" s="4">
         <v>7042370511</v>
@@ -5904,10 +6009,10 @@
         <v>3</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>12</v>
@@ -5935,13 +6040,13 @@
         <v>123</v>
       </c>
       <c r="Q35" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T35">
         <v>121111</v>
@@ -5950,87 +6055,87 @@
         <v>13</v>
       </c>
       <c r="V35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W35">
         <v>23</v>
       </c>
       <c r="X35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA35" s="1"/>
       <c r="AB35" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC35" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK35">
         <v>5000</v>
       </c>
       <c r="AL35" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN35" t="s">
         <v>54</v>
       </c>
-      <c r="AM35" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>56</v>
-      </c>
       <c r="AO35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR35">
         <v>12105096</v>
       </c>
       <c r="AS35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU35">
         <v>121212121</v>
       </c>
       <c r="AV35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW35">
         <v>304567</v>
       </c>
       <c r="AX35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ35" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA35">
         <v>272</v>
@@ -6038,16 +6143,19 @@
       <c r="BB35">
         <v>855</v>
       </c>
+      <c r="BC35">
+        <v>156</v>
+      </c>
     </row>
-    <row r="36" spans="1:54">
+    <row r="36" spans="1:55">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D36" s="4">
         <v>7042370511</v>
@@ -6056,10 +6164,10 @@
         <v>3</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>12</v>
@@ -6087,13 +6195,13 @@
         <v>123</v>
       </c>
       <c r="Q36" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T36">
         <v>121111</v>
@@ -6102,87 +6210,87 @@
         <v>13</v>
       </c>
       <c r="V36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W36">
         <v>23</v>
       </c>
       <c r="X36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z36" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA36" s="1"/>
       <c r="AB36" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC36" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK36">
         <v>5000</v>
       </c>
       <c r="AL36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN36" t="s">
         <v>54</v>
       </c>
-      <c r="AM36" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>56</v>
-      </c>
       <c r="AO36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR36">
         <v>12105096</v>
       </c>
       <c r="AS36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU36">
         <v>121212121</v>
       </c>
       <c r="AV36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW36">
         <v>304567</v>
       </c>
       <c r="AX36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ36" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA36">
         <v>273</v>
@@ -6190,16 +6298,19 @@
       <c r="BB36">
         <v>856</v>
       </c>
+      <c r="BC36">
+        <v>157</v>
+      </c>
     </row>
-    <row r="37" spans="1:54">
+    <row r="37" spans="1:55">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D37" s="4">
         <v>7042370511</v>
@@ -6208,13 +6319,13 @@
         <v>3</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s">
         <v>4</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>13</v>
@@ -6239,13 +6350,13 @@
         <v>123</v>
       </c>
       <c r="Q37" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T37">
         <v>12222</v>
@@ -6254,87 +6365,87 @@
         <v>13</v>
       </c>
       <c r="V37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W37">
         <v>43</v>
       </c>
       <c r="X37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA37" s="1"/>
       <c r="AB37" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC37" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK37">
         <v>5000</v>
       </c>
       <c r="AL37" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN37" t="s">
         <v>54</v>
       </c>
-      <c r="AM37" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>56</v>
-      </c>
       <c r="AO37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR37">
         <v>12105096</v>
       </c>
       <c r="AS37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU37">
         <v>121212121</v>
       </c>
       <c r="AV37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW37">
         <v>304567</v>
       </c>
       <c r="AX37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ37" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA37">
         <v>274</v>
@@ -6342,16 +6453,19 @@
       <c r="BB37">
         <v>857</v>
       </c>
+      <c r="BC37">
+        <v>158</v>
+      </c>
     </row>
-    <row r="38" spans="1:54">
+    <row r="38" spans="1:55">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D38" s="4">
         <v>7042370511</v>
@@ -6360,13 +6474,13 @@
         <v>3</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s">
         <v>4</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>13</v>
@@ -6391,13 +6505,13 @@
         <v>123</v>
       </c>
       <c r="Q38" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T38">
         <v>12222</v>
@@ -6406,87 +6520,87 @@
         <v>13</v>
       </c>
       <c r="V38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W38">
         <v>43</v>
       </c>
       <c r="X38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA38" s="1"/>
       <c r="AB38" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC38" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
       <c r="AF38" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK38">
         <v>5000</v>
       </c>
       <c r="AL38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN38" t="s">
         <v>54</v>
       </c>
-      <c r="AM38" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>56</v>
-      </c>
       <c r="AO38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR38">
         <v>12105096</v>
       </c>
       <c r="AS38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU38">
         <v>121212121</v>
       </c>
       <c r="AV38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW38">
         <v>304567</v>
       </c>
       <c r="AX38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ38" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA38">
         <v>275</v>
@@ -6494,19 +6608,28 @@
       <c r="BB38">
         <v>858</v>
       </c>
+      <c r="BC38">
+        <v>159</v>
+      </c>
     </row>
-    <row r="39" spans="1:54">
+    <row r="39" spans="1:55">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>160</v>
       </c>
       <c r="AC39" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>161</v>
       </c>
       <c r="BA39">
         <v>276</v>
@@ -6514,19 +6637,28 @@
       <c r="BB39">
         <v>859</v>
       </c>
+      <c r="BC39">
+        <v>160</v>
+      </c>
     </row>
-    <row r="40" spans="1:54">
+    <row r="40" spans="1:55">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>160</v>
       </c>
       <c r="AC40" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>161</v>
       </c>
       <c r="BA40">
         <v>277</v>
@@ -6534,19 +6666,28 @@
       <c r="BB40">
         <v>860</v>
       </c>
+      <c r="BC40">
+        <v>161</v>
+      </c>
     </row>
-    <row r="41" spans="1:54">
+    <row r="41" spans="1:55">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>160</v>
       </c>
       <c r="AC41" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>161</v>
       </c>
       <c r="BA41">
         <v>278</v>
@@ -6554,19 +6695,28 @@
       <c r="BB41">
         <v>861</v>
       </c>
+      <c r="BC41">
+        <v>162</v>
+      </c>
     </row>
-    <row r="42" spans="1:54">
+    <row r="42" spans="1:55">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>160</v>
       </c>
       <c r="AC42" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>161</v>
       </c>
       <c r="BA42">
         <v>279</v>
@@ -6574,19 +6724,28 @@
       <c r="BB42">
         <v>862</v>
       </c>
+      <c r="BC42">
+        <v>163</v>
+      </c>
     </row>
-    <row r="43" spans="1:54">
+    <row r="43" spans="1:55">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>160</v>
       </c>
       <c r="AC43" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>161</v>
       </c>
       <c r="BA43">
         <v>280</v>
@@ -6594,16 +6753,19 @@
       <c r="BB43">
         <v>863</v>
       </c>
+      <c r="BC43">
+        <v>164</v>
+      </c>
     </row>
-    <row r="44" spans="1:54">
+    <row r="44" spans="1:55">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D44" s="8">
         <v>8506074541</v>
@@ -6612,7 +6774,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>4</v>
@@ -6643,13 +6805,13 @@
         <v>123</v>
       </c>
       <c r="Q44" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T44">
         <v>121111</v>
@@ -6658,87 +6820,87 @@
         <v>13</v>
       </c>
       <c r="V44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W44">
         <v>23</v>
       </c>
       <c r="X44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z44" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA44" s="1"/>
       <c r="AB44" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC44" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
       <c r="AF44" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG44" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK44">
         <v>5000</v>
       </c>
       <c r="AL44" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN44" t="s">
         <v>54</v>
       </c>
-      <c r="AM44" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>56</v>
-      </c>
       <c r="AO44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR44">
         <v>12105096</v>
       </c>
       <c r="AS44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU44">
         <v>121212121</v>
       </c>
       <c r="AV44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW44">
         <v>304567</v>
       </c>
       <c r="AX44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ44" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA44">
         <v>281</v>
@@ -6746,16 +6908,19 @@
       <c r="BB44">
         <v>864</v>
       </c>
+      <c r="BC44">
+        <v>165</v>
+      </c>
     </row>
-    <row r="45" spans="1:54">
+    <row r="45" spans="1:55">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" t="s">
         <v>147</v>
-      </c>
-      <c r="C45" t="s">
-        <v>150</v>
       </c>
       <c r="D45" s="8">
         <v>8506074541</v>
@@ -6764,7 +6929,7 @@
         <v>3</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>4</v>
@@ -6795,13 +6960,13 @@
         <v>123</v>
       </c>
       <c r="Q45" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T45">
         <v>121111</v>
@@ -6810,87 +6975,87 @@
         <v>13</v>
       </c>
       <c r="V45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W45">
         <v>23</v>
       </c>
       <c r="X45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z45" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA45" s="1"/>
       <c r="AB45" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC45" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
       <c r="AF45" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG45" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK45">
         <v>5000</v>
       </c>
       <c r="AL45" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN45" t="s">
         <v>54</v>
       </c>
-      <c r="AM45" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN45" t="s">
-        <v>56</v>
-      </c>
       <c r="AO45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR45">
         <v>12105096</v>
       </c>
       <c r="AS45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU45">
         <v>121212121</v>
       </c>
       <c r="AV45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW45">
         <v>304567</v>
       </c>
       <c r="AX45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ45" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA45">
         <v>282</v>
@@ -6898,16 +7063,19 @@
       <c r="BB45">
         <v>865</v>
       </c>
+      <c r="BC45">
+        <v>166</v>
+      </c>
     </row>
-    <row r="46" spans="1:54">
+    <row r="46" spans="1:55">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8">
         <v>8506074541</v>
@@ -6916,10 +7084,10 @@
         <v>3</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>12</v>
@@ -6947,13 +7115,13 @@
         <v>123</v>
       </c>
       <c r="Q46" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T46">
         <v>121111</v>
@@ -6962,87 +7130,87 @@
         <v>13</v>
       </c>
       <c r="V46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W46">
         <v>23</v>
       </c>
       <c r="X46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA46" s="1"/>
       <c r="AB46" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC46" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG46" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
       <c r="AJ46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK46">
         <v>5000</v>
       </c>
       <c r="AL46" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN46" t="s">
         <v>54</v>
       </c>
-      <c r="AM46" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN46" t="s">
-        <v>56</v>
-      </c>
       <c r="AO46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR46">
         <v>12105096</v>
       </c>
       <c r="AS46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU46">
         <v>121212121</v>
       </c>
       <c r="AV46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW46">
         <v>304567</v>
       </c>
       <c r="AX46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ46" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA46">
         <v>283</v>
@@ -7050,16 +7218,19 @@
       <c r="BB46">
         <v>866</v>
       </c>
+      <c r="BC46">
+        <v>167</v>
+      </c>
     </row>
-    <row r="47" spans="1:54">
+    <row r="47" spans="1:55">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8">
         <v>8506074541</v>
@@ -7068,10 +7239,10 @@
         <v>3</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>12</v>
@@ -7099,13 +7270,13 @@
         <v>123</v>
       </c>
       <c r="Q47" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T47">
         <v>121111</v>
@@ -7114,87 +7285,87 @@
         <v>13</v>
       </c>
       <c r="V47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W47">
         <v>23</v>
       </c>
       <c r="X47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z47" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA47" s="1"/>
       <c r="AB47" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC47" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG47" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
       <c r="AJ47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK47">
         <v>5000</v>
       </c>
       <c r="AL47" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN47" t="s">
         <v>54</v>
       </c>
-      <c r="AM47" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN47" t="s">
-        <v>56</v>
-      </c>
       <c r="AO47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR47">
         <v>12105096</v>
       </c>
       <c r="AS47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU47">
         <v>121212121</v>
       </c>
       <c r="AV47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW47">
         <v>304567</v>
       </c>
       <c r="AX47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ47" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA47">
         <v>284</v>
@@ -7202,16 +7373,19 @@
       <c r="BB47">
         <v>867</v>
       </c>
+      <c r="BC47">
+        <v>168</v>
+      </c>
     </row>
-    <row r="48" spans="1:54">
+    <row r="48" spans="1:55">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D48" s="4">
         <v>9971141630</v>
@@ -7220,13 +7394,13 @@
         <v>3</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s">
         <v>4</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>13</v>
@@ -7251,13 +7425,13 @@
         <v>123</v>
       </c>
       <c r="Q48" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T48">
         <v>12222</v>
@@ -7266,87 +7440,87 @@
         <v>13</v>
       </c>
       <c r="V48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W48">
         <v>43</v>
       </c>
       <c r="X48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z48" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA48" s="1"/>
       <c r="AB48" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC48" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG48" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
       <c r="AJ48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK48">
         <v>5000</v>
       </c>
       <c r="AL48" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN48" t="s">
         <v>54</v>
       </c>
-      <c r="AM48" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>56</v>
-      </c>
       <c r="AO48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR48">
         <v>12105096</v>
       </c>
       <c r="AS48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU48">
         <v>121212121</v>
       </c>
       <c r="AV48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW48">
         <v>304567</v>
       </c>
       <c r="AX48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ48" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA48">
         <v>285</v>
@@ -7354,16 +7528,19 @@
       <c r="BB48">
         <v>868</v>
       </c>
+      <c r="BC48">
+        <v>169</v>
+      </c>
     </row>
-    <row r="49" spans="1:54">
+    <row r="49" spans="1:55">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D49" s="4">
         <v>9971141630</v>
@@ -7372,13 +7549,13 @@
         <v>3</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s">
         <v>4</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>13</v>
@@ -7403,13 +7580,13 @@
         <v>123</v>
       </c>
       <c r="Q49" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T49">
         <v>12222</v>
@@ -7418,87 +7595,87 @@
         <v>13</v>
       </c>
       <c r="V49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W49">
         <v>43</v>
       </c>
       <c r="X49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z49" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA49" s="1"/>
       <c r="AB49" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC49" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH49" s="1"/>
       <c r="AI49" s="1"/>
       <c r="AJ49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK49">
         <v>5000</v>
       </c>
       <c r="AL49" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN49" t="s">
         <v>54</v>
       </c>
-      <c r="AM49" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN49" t="s">
-        <v>56</v>
-      </c>
       <c r="AO49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR49">
         <v>12105096</v>
       </c>
       <c r="AS49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU49">
         <v>121212121</v>
       </c>
       <c r="AV49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW49">
         <v>304567</v>
       </c>
       <c r="AX49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ49" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA49">
         <v>286</v>
@@ -7506,16 +7683,19 @@
       <c r="BB49">
         <v>869</v>
       </c>
+      <c r="BC49">
+        <v>170</v>
+      </c>
     </row>
-    <row r="50" spans="1:54">
+    <row r="50" spans="1:55">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D50" s="4">
         <v>9971141630</v>
@@ -7524,10 +7704,10 @@
         <v>3</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>12</v>
@@ -7555,13 +7735,13 @@
         <v>123</v>
       </c>
       <c r="Q50" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T50">
         <v>121111</v>
@@ -7570,87 +7750,87 @@
         <v>13</v>
       </c>
       <c r="V50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W50">
         <v>23</v>
       </c>
       <c r="X50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z50" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA50" s="1"/>
       <c r="AB50" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC50" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
       <c r="AJ50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK50">
         <v>5000</v>
       </c>
       <c r="AL50" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN50" t="s">
         <v>54</v>
       </c>
-      <c r="AM50" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN50" t="s">
-        <v>56</v>
-      </c>
       <c r="AO50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP50" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR50">
         <v>12105096</v>
       </c>
       <c r="AS50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU50">
         <v>121212121</v>
       </c>
       <c r="AV50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW50">
         <v>304567</v>
       </c>
       <c r="AX50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ50" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA50">
         <v>287</v>
@@ -7658,16 +7838,19 @@
       <c r="BB50">
         <v>870</v>
       </c>
+      <c r="BC50">
+        <v>171</v>
+      </c>
     </row>
-    <row r="51" spans="1:54">
+    <row r="51" spans="1:55">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D51">
         <v>9971141630</v>
@@ -7676,10 +7859,10 @@
         <v>3</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>12</v>
@@ -7707,13 +7890,13 @@
         <v>123</v>
       </c>
       <c r="Q51" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T51">
         <v>121111</v>
@@ -7722,87 +7905,87 @@
         <v>13</v>
       </c>
       <c r="V51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W51">
         <v>23</v>
       </c>
       <c r="X51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z51" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA51" s="1"/>
       <c r="AB51" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC51" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG51" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
       <c r="AJ51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK51">
         <v>5000</v>
       </c>
       <c r="AL51" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN51" t="s">
         <v>54</v>
       </c>
-      <c r="AM51" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN51" t="s">
-        <v>56</v>
-      </c>
       <c r="AO51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR51">
         <v>12105096</v>
       </c>
       <c r="AS51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU51">
         <v>121212121</v>
       </c>
       <c r="AV51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW51">
         <v>304567</v>
       </c>
       <c r="AX51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ51" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA51">
         <v>288</v>
@@ -7810,16 +7993,19 @@
       <c r="BB51">
         <v>871</v>
       </c>
+      <c r="BC51">
+        <v>172</v>
+      </c>
     </row>
-    <row r="52" spans="1:54">
+    <row r="52" spans="1:55">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D52" s="8">
         <v>9557106666</v>
@@ -7828,10 +8014,10 @@
         <v>3</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>12</v>
@@ -7859,13 +8045,13 @@
         <v>123</v>
       </c>
       <c r="Q52" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T52">
         <v>121111</v>
@@ -7874,87 +8060,87 @@
         <v>13</v>
       </c>
       <c r="V52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W52">
         <v>23</v>
       </c>
       <c r="X52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z52" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA52" s="1"/>
       <c r="AB52" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC52" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG52" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
       <c r="AJ52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK52">
         <v>5000</v>
       </c>
       <c r="AL52" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN52" t="s">
         <v>54</v>
       </c>
-      <c r="AM52" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN52" t="s">
-        <v>56</v>
-      </c>
       <c r="AO52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR52">
         <v>12105096</v>
       </c>
       <c r="AS52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU52">
         <v>121212121</v>
       </c>
       <c r="AV52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW52">
         <v>304567</v>
       </c>
       <c r="AX52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ52" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA52">
         <v>289</v>
@@ -7962,16 +8148,19 @@
       <c r="BB52">
         <v>872</v>
       </c>
+      <c r="BC52">
+        <v>173</v>
+      </c>
     </row>
-    <row r="53" spans="1:54">
+    <row r="53" spans="1:55">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D53" s="8">
         <v>9557106666</v>
@@ -7980,10 +8169,10 @@
         <v>3</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>12</v>
@@ -8011,13 +8200,13 @@
         <v>123</v>
       </c>
       <c r="Q53" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T53">
         <v>121111</v>
@@ -8026,87 +8215,87 @@
         <v>13</v>
       </c>
       <c r="V53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W53">
         <v>23</v>
       </c>
       <c r="X53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z53" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA53" s="1"/>
       <c r="AB53" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC53" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
       <c r="AJ53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK53">
         <v>5000</v>
       </c>
       <c r="AL53" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN53" t="s">
         <v>54</v>
       </c>
-      <c r="AM53" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN53" t="s">
-        <v>56</v>
-      </c>
       <c r="AO53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR53">
         <v>12105096</v>
       </c>
       <c r="AS53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU53">
         <v>121212121</v>
       </c>
       <c r="AV53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW53">
         <v>304567</v>
       </c>
       <c r="AX53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ53" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA53">
         <v>290</v>
@@ -8114,16 +8303,19 @@
       <c r="BB53">
         <v>873</v>
       </c>
+      <c r="BC53">
+        <v>174</v>
+      </c>
     </row>
-    <row r="54" spans="1:54">
+    <row r="54" spans="1:55">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D54" s="8">
         <v>9557106666</v>
@@ -8132,7 +8324,7 @@
         <v>3</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>4</v>
@@ -8163,13 +8355,13 @@
         <v>123</v>
       </c>
       <c r="Q54" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T54">
         <v>121111</v>
@@ -8178,87 +8370,87 @@
         <v>13</v>
       </c>
       <c r="V54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W54">
         <v>23</v>
       </c>
       <c r="X54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z54" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA54" s="1"/>
       <c r="AB54" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC54" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG54" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
       <c r="AJ54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK54">
         <v>5000</v>
       </c>
       <c r="AL54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN54" t="s">
         <v>54</v>
       </c>
-      <c r="AM54" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN54" t="s">
-        <v>56</v>
-      </c>
       <c r="AO54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR54">
         <v>12105096</v>
       </c>
       <c r="AS54" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU54">
         <v>121212121</v>
       </c>
       <c r="AV54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW54">
         <v>304567</v>
       </c>
       <c r="AX54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AY54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ54" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA54">
         <v>291</v>
@@ -8266,16 +8458,19 @@
       <c r="BB54">
         <v>874</v>
       </c>
+      <c r="BC54">
+        <v>175</v>
+      </c>
     </row>
-    <row r="55" spans="1:54">
+    <row r="55" spans="1:55">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D55" s="8">
         <v>9557106666</v>
@@ -8284,7 +8479,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>4</v>
@@ -8315,13 +8510,13 @@
         <v>123</v>
       </c>
       <c r="Q55" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T55">
         <v>121111</v>
@@ -8330,93 +8525,96 @@
         <v>13</v>
       </c>
       <c r="V55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W55">
         <v>23</v>
       </c>
       <c r="X55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z55" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA55" s="1"/>
       <c r="AB55" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC55" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG55" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AH55" s="1"/>
       <c r="AI55" s="1"/>
       <c r="AJ55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AK55">
         <v>5000</v>
       </c>
       <c r="AL55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN55" t="s">
         <v>54</v>
       </c>
-      <c r="AM55" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN55" t="s">
-        <v>56</v>
-      </c>
       <c r="AO55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AP55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR55">
         <v>12105096</v>
       </c>
       <c r="AS55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AU55">
         <v>121212121</v>
       </c>
       <c r="AV55" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AW55">
         <v>304567</v>
       </c>
       <c r="AX55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AY55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AZ55" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="BA55">
         <v>292</v>
       </c>
       <c r="BB55">
         <v>875</v>
+      </c>
+      <c r="BC55">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
